--- a/src/.vuepress/public/assets/numDEs/status/attendance.xlsx
+++ b/src/.vuepress/public/assets/numDEs/status/attendance.xlsx
@@ -13,7 +13,1729 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6256" uniqueCount="2296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7820" uniqueCount="2870">
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>学号</t>
+  </si>
+  <si>
+    <t>19020182203624</t>
+  </si>
+  <si>
+    <t>19020202200624</t>
+  </si>
+  <si>
+    <t>19020202202514</t>
+  </si>
+  <si>
+    <t>19020202202528</t>
+  </si>
+  <si>
+    <t>19020202204352</t>
+  </si>
+  <si>
+    <t>19020202204366</t>
+  </si>
+  <si>
+    <t>19020212203411</t>
+  </si>
+  <si>
+    <t>19020212203415</t>
+  </si>
+  <si>
+    <t>19020212203422</t>
+  </si>
+  <si>
+    <t>19020212203431</t>
+  </si>
+  <si>
+    <t>19020212203434</t>
+  </si>
+  <si>
+    <t>19020212203453</t>
+  </si>
+  <si>
+    <t>19020212203455</t>
+  </si>
+  <si>
+    <t>19020212203466</t>
+  </si>
+  <si>
+    <t>19020212203470</t>
+  </si>
+  <si>
+    <t>19020212203473</t>
+  </si>
+  <si>
+    <t>19020212203494</t>
+  </si>
+  <si>
+    <t>19020212203496</t>
+  </si>
+  <si>
+    <t>19020212203509</t>
+  </si>
+  <si>
+    <t>19020212203510</t>
+  </si>
+  <si>
+    <t>19020222202291</t>
+  </si>
+  <si>
+    <t>19020222202292</t>
+  </si>
+  <si>
+    <t>19020222202295</t>
+  </si>
+  <si>
+    <t>19020222202296</t>
+  </si>
+  <si>
+    <t>20420202201837</t>
+  </si>
+  <si>
+    <t>25120212202184</t>
+  </si>
+  <si>
+    <t>25120212202229</t>
+  </si>
+  <si>
+    <t>25120222201341</t>
+  </si>
+  <si>
+    <t>32420222202055</t>
+  </si>
+  <si>
+    <t>37420222204260</t>
+  </si>
+  <si>
+    <t>37520222204509</t>
+  </si>
+  <si>
+    <t>37520222204672</t>
+  </si>
+  <si>
+    <t>37520222204692</t>
+  </si>
+  <si>
+    <t>37720222204903</t>
+  </si>
+  <si>
+    <t>37720222204905</t>
+  </si>
+  <si>
+    <t>37720222204913</t>
+  </si>
+  <si>
+    <t>37720222204916</t>
+  </si>
+  <si>
+    <t>37720222204939</t>
+  </si>
+  <si>
+    <t>37720222204941</t>
+  </si>
+  <si>
+    <t>37720222204946</t>
+  </si>
+  <si>
+    <t>37720222204949</t>
+  </si>
+  <si>
+    <t>37720222204950</t>
+  </si>
+  <si>
+    <t>37720222204966</t>
+  </si>
+  <si>
+    <t>37720222204968</t>
+  </si>
+  <si>
+    <t>37720222204974</t>
+  </si>
+  <si>
+    <t>37720222204986</t>
+  </si>
+  <si>
+    <t>37720222204987</t>
+  </si>
+  <si>
+    <t>37720222204990</t>
+  </si>
+  <si>
+    <t>37720222204994</t>
+  </si>
+  <si>
+    <t>37720222204998</t>
+  </si>
+  <si>
+    <t>37720222204999</t>
+  </si>
+  <si>
+    <t>37720222205009</t>
+  </si>
+  <si>
+    <t>37720222205014</t>
+  </si>
+  <si>
+    <t>37720222205017</t>
+  </si>
+  <si>
+    <t>37720222205018</t>
+  </si>
+  <si>
+    <t>37720222205021</t>
+  </si>
+  <si>
+    <t>37720222205026</t>
+  </si>
+  <si>
+    <t>37720222205030</t>
+  </si>
+  <si>
+    <t>37720222205041</t>
+  </si>
+  <si>
+    <t>37720222205069</t>
+  </si>
+  <si>
+    <t>37720222205078</t>
+  </si>
+  <si>
+    <t>37720222205080</t>
+  </si>
+  <si>
+    <t>37720222205085</t>
+  </si>
+  <si>
+    <t>37720222205088</t>
+  </si>
+  <si>
+    <t>37720222205094</t>
+  </si>
+  <si>
+    <t>37720222205096</t>
+  </si>
+  <si>
+    <t>37720222205105</t>
+  </si>
+  <si>
+    <t>37720222205114</t>
+  </si>
+  <si>
+    <t>37720222205117</t>
+  </si>
+  <si>
+    <t>37720222205124</t>
+  </si>
+  <si>
+    <t>表中符号说明：旷课用“Ｏ”表示，迟到用“Ø”表示，请假“⊕”用表示，正常出勤的用“√”表示，早退用△表示，其中如果符号前面出现数字表示签到次数如2Ｏ代表旷课2次</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>苏宏宇</t>
+  </si>
+  <si>
+    <t>杜雨晴</t>
+  </si>
+  <si>
+    <t>牛雅茹</t>
+  </si>
+  <si>
+    <t>张世豪</t>
+  </si>
+  <si>
+    <t>郭紫熙</t>
+  </si>
+  <si>
+    <t>邢炳萱</t>
+  </si>
+  <si>
+    <t>陈宇润</t>
+  </si>
+  <si>
+    <t>戴子恒</t>
+  </si>
+  <si>
+    <t>韩双御</t>
+  </si>
+  <si>
+    <t>黄学敏</t>
+  </si>
+  <si>
+    <t>蒋志轩</t>
+  </si>
+  <si>
+    <t>刘清华</t>
+  </si>
+  <si>
+    <t>刘铮武</t>
+  </si>
+  <si>
+    <t>邵译萱</t>
+  </si>
+  <si>
+    <t>田加林</t>
+  </si>
+  <si>
+    <t>王清林</t>
+  </si>
+  <si>
+    <t>杨凯旋</t>
+  </si>
+  <si>
+    <t>杨雨涵</t>
+  </si>
+  <si>
+    <t>张永琦</t>
+  </si>
+  <si>
+    <t>赵庆尧</t>
+  </si>
+  <si>
+    <t>陈珂楠</t>
+  </si>
+  <si>
+    <t>傅凌瑶</t>
+  </si>
+  <si>
+    <t>李清星</t>
+  </si>
+  <si>
+    <t>李欣然</t>
+  </si>
+  <si>
+    <t>徐清源</t>
+  </si>
+  <si>
+    <t>黄秉章</t>
+  </si>
+  <si>
+    <t>庄博诚</t>
+  </si>
+  <si>
+    <t>沈仁祥</t>
+  </si>
+  <si>
+    <t>岳宏伟</t>
+  </si>
+  <si>
+    <t>许鑫龙</t>
+  </si>
+  <si>
+    <t>程禹</t>
+  </si>
+  <si>
+    <t>林德耿</t>
+  </si>
+  <si>
+    <t>欧佳俊</t>
+  </si>
+  <si>
+    <t>陈鸿达</t>
+  </si>
+  <si>
+    <t>陈筱锋</t>
+  </si>
+  <si>
+    <t>方泽侗</t>
+  </si>
+  <si>
+    <t>高源</t>
+  </si>
+  <si>
+    <t>连传瀚</t>
+  </si>
+  <si>
+    <t>林清</t>
+  </si>
+  <si>
+    <t>刘宇</t>
+  </si>
+  <si>
+    <t>卢沈昊</t>
+  </si>
+  <si>
+    <t>吕阳</t>
+  </si>
+  <si>
+    <t>王翊君</t>
+  </si>
+  <si>
+    <t>王宇轩</t>
+  </si>
+  <si>
+    <t>夏宇轩</t>
+  </si>
+  <si>
+    <t>张源航</t>
+  </si>
+  <si>
+    <t>张庄辉</t>
+  </si>
+  <si>
+    <t>赵勤励</t>
+  </si>
+  <si>
+    <t>周家辉</t>
+  </si>
+  <si>
+    <t>卜於锴</t>
+  </si>
+  <si>
+    <t>陈柏沣</t>
+  </si>
+  <si>
+    <t>戴坤</t>
+  </si>
+  <si>
+    <t>傅纪宁</t>
+  </si>
+  <si>
+    <t>韩东礼</t>
+  </si>
+  <si>
+    <t>何锦弘</t>
+  </si>
+  <si>
+    <t>洪怡洁</t>
+  </si>
+  <si>
+    <t>兰景琪</t>
+  </si>
+  <si>
+    <t>李福坤</t>
+  </si>
+  <si>
+    <t>林毅</t>
+  </si>
+  <si>
+    <t>宋锐扬</t>
+  </si>
+  <si>
+    <t>万泽棋</t>
+  </si>
+  <si>
+    <t>王俊杰</t>
+  </si>
+  <si>
+    <t>王与乐</t>
+  </si>
+  <si>
+    <t>王跃衡</t>
+  </si>
+  <si>
+    <t>徐景天</t>
+  </si>
+  <si>
+    <t>许景宣</t>
+  </si>
+  <si>
+    <t>袁晗玥</t>
+  </si>
+  <si>
+    <t>张梦扬</t>
+  </si>
+  <si>
+    <t>张旭</t>
+  </si>
+  <si>
+    <t>郑力炫</t>
+  </si>
+  <si>
+    <t>学院名称</t>
+  </si>
+  <si>
+    <t>数学科学学院</t>
+  </si>
+  <si>
+    <t>专业名称</t>
+  </si>
+  <si>
+    <t>信息与计算科学</t>
+  </si>
+  <si>
+    <t>数学与应用数学</t>
+  </si>
+  <si>
+    <t>信息与计算科学</t>
+  </si>
+  <si>
+    <t>数学与应用数学</t>
+  </si>
+  <si>
+    <t>信息与计算科学</t>
+  </si>
+  <si>
+    <t>数学与应用数学</t>
+  </si>
+  <si>
+    <t>信息与计算科学</t>
+  </si>
+  <si>
+    <t>数学与应用数学</t>
+  </si>
+  <si>
+    <t>信息与计算科学</t>
+  </si>
+  <si>
+    <t>数学与应用数学</t>
+  </si>
+  <si>
+    <t>信息与计算科学</t>
+  </si>
+  <si>
+    <t>第1周</t>
+  </si>
+  <si>
+    <t>○</t>
+  </si>
+  <si>
+    <t>√</t>
+  </si>
+  <si>
+    <t>○</t>
+  </si>
+  <si>
+    <t>√</t>
+  </si>
+  <si>
+    <t>○</t>
+  </si>
+  <si>
+    <t>√</t>
+  </si>
+  <si>
+    <t>○</t>
+  </si>
+  <si>
+    <t>√</t>
+  </si>
+  <si>
+    <t>○</t>
+  </si>
+  <si>
+    <t>√</t>
+  </si>
+  <si>
+    <t>第2周</t>
+  </si>
+  <si>
+    <t>3○</t>
+  </si>
+  <si>
+    <t>3√</t>
+  </si>
+  <si>
+    <t>2○√</t>
+  </si>
+  <si>
+    <t>3○</t>
+  </si>
+  <si>
+    <t>3√</t>
+  </si>
+  <si>
+    <t>○2√</t>
+  </si>
+  <si>
+    <t>3√</t>
+  </si>
+  <si>
+    <t>○2√</t>
+  </si>
+  <si>
+    <t>2○√</t>
+  </si>
+  <si>
+    <t>3√</t>
+  </si>
+  <si>
+    <t>○2√</t>
+  </si>
+  <si>
+    <t>3○</t>
+  </si>
+  <si>
+    <t>3√</t>
+  </si>
+  <si>
+    <t>3○</t>
+  </si>
+  <si>
+    <t>3√</t>
+  </si>
+  <si>
+    <t>2○√</t>
+  </si>
+  <si>
+    <t>3√</t>
+  </si>
+  <si>
+    <t>第3周</t>
+  </si>
+  <si>
+    <t>2○</t>
+  </si>
+  <si>
+    <t>2√</t>
+  </si>
+  <si>
+    <t>2○</t>
+  </si>
+  <si>
+    <t>2√</t>
+  </si>
+  <si>
+    <t>○√</t>
+  </si>
+  <si>
+    <t>2√</t>
+  </si>
+  <si>
+    <t>○√</t>
+  </si>
+  <si>
+    <t>2√</t>
+  </si>
+  <si>
+    <t>2○</t>
+  </si>
+  <si>
+    <t>2√</t>
+  </si>
+  <si>
+    <t>2○</t>
+  </si>
+  <si>
+    <t>2√</t>
+  </si>
+  <si>
+    <t>2○</t>
+  </si>
+  <si>
+    <t>2√</t>
+  </si>
+  <si>
+    <t>○√</t>
+  </si>
+  <si>
+    <t>2√</t>
+  </si>
+  <si>
+    <t>√⊕</t>
+  </si>
+  <si>
+    <t>2√</t>
+  </si>
+  <si>
+    <t>第4周</t>
+  </si>
+  <si>
+    <t>3○</t>
+  </si>
+  <si>
+    <t>3√</t>
+  </si>
+  <si>
+    <t>○2√</t>
+  </si>
+  <si>
+    <t>3○</t>
+  </si>
+  <si>
+    <t>3√</t>
+  </si>
+  <si>
+    <t>3○</t>
+  </si>
+  <si>
+    <t>3√</t>
+  </si>
+  <si>
+    <t>○2√</t>
+  </si>
+  <si>
+    <t>3√</t>
+  </si>
+  <si>
+    <t>3○</t>
+  </si>
+  <si>
+    <t>3√</t>
+  </si>
+  <si>
+    <t>○2√</t>
+  </si>
+  <si>
+    <t>3√</t>
+  </si>
+  <si>
+    <t>2○√</t>
+  </si>
+  <si>
+    <t>3√</t>
+  </si>
+  <si>
+    <t>3○</t>
+  </si>
+  <si>
+    <t>3√</t>
+  </si>
+  <si>
+    <t>○2√</t>
+  </si>
+  <si>
+    <t>3√</t>
+  </si>
+  <si>
+    <t>第5周</t>
+  </si>
+  <si>
+    <t>2○</t>
+  </si>
+  <si>
+    <t>2√</t>
+  </si>
+  <si>
+    <t>○√</t>
+  </si>
+  <si>
+    <t>2√</t>
+  </si>
+  <si>
+    <t>2○</t>
+  </si>
+  <si>
+    <t>2√</t>
+  </si>
+  <si>
+    <t>○√</t>
+  </si>
+  <si>
+    <t>2√</t>
+  </si>
+  <si>
+    <t>○√</t>
+  </si>
+  <si>
+    <t>2√</t>
+  </si>
+  <si>
+    <t>2○</t>
+  </si>
+  <si>
+    <t>2√</t>
+  </si>
+  <si>
+    <t>○√</t>
+  </si>
+  <si>
+    <t>2√</t>
+  </si>
+  <si>
+    <t>2○</t>
+  </si>
+  <si>
+    <t>2√</t>
+  </si>
+  <si>
+    <t>○√</t>
+  </si>
+  <si>
+    <t>2√</t>
+  </si>
+  <si>
+    <t>第6周</t>
+  </si>
+  <si>
+    <t>○</t>
+  </si>
+  <si>
+    <t>√</t>
+  </si>
+  <si>
+    <t>○</t>
+  </si>
+  <si>
+    <t>√</t>
+  </si>
+  <si>
+    <t>○</t>
+  </si>
+  <si>
+    <t>√</t>
+  </si>
+  <si>
+    <t>○</t>
+  </si>
+  <si>
+    <t>√</t>
+  </si>
+  <si>
+    <t>○</t>
+  </si>
+  <si>
+    <t>√</t>
+  </si>
+  <si>
+    <t>第7周</t>
+  </si>
+  <si>
+    <t>2○</t>
+  </si>
+  <si>
+    <t>2√</t>
+  </si>
+  <si>
+    <t>○√</t>
+  </si>
+  <si>
+    <t>2√</t>
+  </si>
+  <si>
+    <t>2○</t>
+  </si>
+  <si>
+    <t>2√</t>
+  </si>
+  <si>
+    <t>○√</t>
+  </si>
+  <si>
+    <t>2√</t>
+  </si>
+  <si>
+    <t>2○</t>
+  </si>
+  <si>
+    <t>2√</t>
+  </si>
+  <si>
+    <t>2○</t>
+  </si>
+  <si>
+    <t>2√</t>
+  </si>
+  <si>
+    <t>○√</t>
+  </si>
+  <si>
+    <t>2√</t>
+  </si>
+  <si>
+    <t>第8周</t>
+  </si>
+  <si>
+    <t>3○</t>
+  </si>
+  <si>
+    <t>√2⊕</t>
+  </si>
+  <si>
+    <t>3√</t>
+  </si>
+  <si>
+    <t>3○</t>
+  </si>
+  <si>
+    <t>○2√</t>
+  </si>
+  <si>
+    <t>3√</t>
+  </si>
+  <si>
+    <t>○2√</t>
+  </si>
+  <si>
+    <t>3√</t>
+  </si>
+  <si>
+    <t>○2√</t>
+  </si>
+  <si>
+    <t>3√</t>
+  </si>
+  <si>
+    <t>3○</t>
+  </si>
+  <si>
+    <t>○2√</t>
+  </si>
+  <si>
+    <t>3√</t>
+  </si>
+  <si>
+    <t>○2√</t>
+  </si>
+  <si>
+    <t>3√</t>
+  </si>
+  <si>
+    <t>3○</t>
+  </si>
+  <si>
+    <t>3√</t>
+  </si>
+  <si>
+    <t>○2√</t>
+  </si>
+  <si>
+    <t>3√</t>
+  </si>
+  <si>
+    <t>第9周</t>
+  </si>
+  <si>
+    <t>2○</t>
+  </si>
+  <si>
+    <t>2√</t>
+  </si>
+  <si>
+    <t>2○</t>
+  </si>
+  <si>
+    <t>2√</t>
+  </si>
+  <si>
+    <t>○√</t>
+  </si>
+  <si>
+    <t>2√</t>
+  </si>
+  <si>
+    <t>2○</t>
+  </si>
+  <si>
+    <t>2√</t>
+  </si>
+  <si>
+    <t>2○</t>
+  </si>
+  <si>
+    <t>2√</t>
+  </si>
+  <si>
+    <t>2○</t>
+  </si>
+  <si>
+    <t>2√</t>
+  </si>
+  <si>
+    <t>2○</t>
+  </si>
+  <si>
+    <t>2√</t>
+  </si>
+  <si>
+    <t>○√</t>
+  </si>
+  <si>
+    <t>2√</t>
+  </si>
+  <si>
+    <t>第10周</t>
+  </si>
+  <si>
+    <t>3○</t>
+  </si>
+  <si>
+    <t>3√</t>
+  </si>
+  <si>
+    <t>○2√</t>
+  </si>
+  <si>
+    <t>3√</t>
+  </si>
+  <si>
+    <t>3○</t>
+  </si>
+  <si>
+    <t>3√</t>
+  </si>
+  <si>
+    <t>○2√</t>
+  </si>
+  <si>
+    <t>3√</t>
+  </si>
+  <si>
+    <t>2○√</t>
+  </si>
+  <si>
+    <t>3○</t>
+  </si>
+  <si>
+    <t>○2√</t>
+  </si>
+  <si>
+    <t>2○√</t>
+  </si>
+  <si>
+    <t>3√</t>
+  </si>
+  <si>
+    <t>○2√</t>
+  </si>
+  <si>
+    <t>3√</t>
+  </si>
+  <si>
+    <t>3○</t>
+  </si>
+  <si>
+    <t>3√</t>
+  </si>
+  <si>
+    <t>2○√</t>
+  </si>
+  <si>
+    <t>3√</t>
+  </si>
+  <si>
+    <t>○2√</t>
+  </si>
+  <si>
+    <t>3√</t>
+  </si>
+  <si>
+    <t>第11周</t>
+  </si>
+  <si>
+    <t>2○</t>
+  </si>
+  <si>
+    <t>2√</t>
+  </si>
+  <si>
+    <t>○√</t>
+  </si>
+  <si>
+    <t>2○</t>
+  </si>
+  <si>
+    <t>○√</t>
+  </si>
+  <si>
+    <t>2√</t>
+  </si>
+  <si>
+    <t>○√</t>
+  </si>
+  <si>
+    <t>2√</t>
+  </si>
+  <si>
+    <t>2○</t>
+  </si>
+  <si>
+    <t>2√</t>
+  </si>
+  <si>
+    <t>○√</t>
+  </si>
+  <si>
+    <t>2√</t>
+  </si>
+  <si>
+    <t>○√</t>
+  </si>
+  <si>
+    <t>2√</t>
+  </si>
+  <si>
+    <t>2○</t>
+  </si>
+  <si>
+    <t>2√</t>
+  </si>
+  <si>
+    <t>○√</t>
+  </si>
+  <si>
+    <t>2√</t>
+  </si>
+  <si>
+    <t>第12周</t>
+  </si>
+  <si>
+    <t>3○</t>
+  </si>
+  <si>
+    <t>3√</t>
+  </si>
+  <si>
+    <t>2○√</t>
+  </si>
+  <si>
+    <t>3√</t>
+  </si>
+  <si>
+    <t>3○</t>
+  </si>
+  <si>
+    <t>○2√</t>
+  </si>
+  <si>
+    <t>○√Ø</t>
+  </si>
+  <si>
+    <t>2√Ø</t>
+  </si>
+  <si>
+    <t>2○√</t>
+  </si>
+  <si>
+    <t>○2√</t>
+  </si>
+  <si>
+    <t>2○√</t>
+  </si>
+  <si>
+    <t>2√Ø</t>
+  </si>
+  <si>
+    <t>2○√</t>
+  </si>
+  <si>
+    <t>3○</t>
+  </si>
+  <si>
+    <t>2○√</t>
+  </si>
+  <si>
+    <t>○2√</t>
+  </si>
+  <si>
+    <t>3√</t>
+  </si>
+  <si>
+    <t>3○</t>
+  </si>
+  <si>
+    <t>3√</t>
+  </si>
+  <si>
+    <t>○2√</t>
+  </si>
+  <si>
+    <t>3√</t>
+  </si>
+  <si>
+    <t>2√⊕</t>
+  </si>
+  <si>
+    <t>3√</t>
+  </si>
+  <si>
+    <t>2√Ø</t>
+  </si>
+  <si>
+    <t>3√</t>
+  </si>
+  <si>
+    <t>○2√</t>
+  </si>
+  <si>
+    <t>3√</t>
+  </si>
+  <si>
+    <t>○2√</t>
+  </si>
+  <si>
+    <t>3√</t>
+  </si>
+  <si>
+    <t>○2√</t>
+  </si>
+  <si>
+    <t>3√</t>
+  </si>
+  <si>
+    <t>○2√</t>
+  </si>
+  <si>
+    <t>3√</t>
+  </si>
+  <si>
+    <t>第13周</t>
+  </si>
+  <si>
+    <t>2○</t>
+  </si>
+  <si>
+    <t>2√</t>
+  </si>
+  <si>
+    <t>○√</t>
+  </si>
+  <si>
+    <t>2○</t>
+  </si>
+  <si>
+    <t>○√</t>
+  </si>
+  <si>
+    <t>2○</t>
+  </si>
+  <si>
+    <t>○√</t>
+  </si>
+  <si>
+    <t>2√</t>
+  </si>
+  <si>
+    <t>○√</t>
+  </si>
+  <si>
+    <t>2○</t>
+  </si>
+  <si>
+    <t>○√</t>
+  </si>
+  <si>
+    <t>2√</t>
+  </si>
+  <si>
+    <t>○√</t>
+  </si>
+  <si>
+    <t>2√</t>
+  </si>
+  <si>
+    <t>2○</t>
+  </si>
+  <si>
+    <t>2√</t>
+  </si>
+  <si>
+    <t>○√</t>
+  </si>
+  <si>
+    <t>2√</t>
+  </si>
+  <si>
+    <t>○√</t>
+  </si>
+  <si>
+    <t>2√</t>
+  </si>
+  <si>
+    <t>○√</t>
+  </si>
+  <si>
+    <t>2√</t>
+  </si>
+  <si>
+    <t>第14周</t>
+  </si>
+  <si>
+    <t>3○</t>
+  </si>
+  <si>
+    <t>3√</t>
+  </si>
+  <si>
+    <t>○2√</t>
+  </si>
+  <si>
+    <t>2○√</t>
+  </si>
+  <si>
+    <t>3√</t>
+  </si>
+  <si>
+    <t>3○</t>
+  </si>
+  <si>
+    <t>3√</t>
+  </si>
+  <si>
+    <t>○2√</t>
+  </si>
+  <si>
+    <t>2○√</t>
+  </si>
+  <si>
+    <t>3√</t>
+  </si>
+  <si>
+    <t>○2√</t>
+  </si>
+  <si>
+    <t>3√</t>
+  </si>
+  <si>
+    <t>○2√</t>
+  </si>
+  <si>
+    <t>3√</t>
+  </si>
+  <si>
+    <t>3○</t>
+  </si>
+  <si>
+    <t>○2√</t>
+  </si>
+  <si>
+    <t>3√</t>
+  </si>
+  <si>
+    <t>○2√</t>
+  </si>
+  <si>
+    <t>3√</t>
+  </si>
+  <si>
+    <t>2√Ø</t>
+  </si>
+  <si>
+    <t>3○</t>
+  </si>
+  <si>
+    <t>3√</t>
+  </si>
+  <si>
+    <t>3○</t>
+  </si>
+  <si>
+    <t>3√</t>
+  </si>
+  <si>
+    <t>○2√</t>
+  </si>
+  <si>
+    <t>3√</t>
+  </si>
+  <si>
+    <t>第15周</t>
+  </si>
+  <si>
+    <t>2○</t>
+  </si>
+  <si>
+    <t>○√</t>
+  </si>
+  <si>
+    <t>2√</t>
+  </si>
+  <si>
+    <t>2○</t>
+  </si>
+  <si>
+    <t>○√</t>
+  </si>
+  <si>
+    <t>2○</t>
+  </si>
+  <si>
+    <t>○√</t>
+  </si>
+  <si>
+    <t>2√</t>
+  </si>
+  <si>
+    <t>○√</t>
+  </si>
+  <si>
+    <t>2√</t>
+  </si>
+  <si>
+    <t>2○</t>
+  </si>
+  <si>
+    <t>2√</t>
+  </si>
+  <si>
+    <t>2○</t>
+  </si>
+  <si>
+    <t>2√</t>
+  </si>
+  <si>
+    <t>2○</t>
+  </si>
+  <si>
+    <t>2√</t>
+  </si>
+  <si>
+    <t>○√</t>
+  </si>
+  <si>
+    <t>2√</t>
+  </si>
+  <si>
+    <t>第16周</t>
+  </si>
+  <si>
+    <t>2○</t>
+  </si>
+  <si>
+    <t>2√</t>
+  </si>
+  <si>
+    <t>2○</t>
+  </si>
+  <si>
+    <t>2√</t>
+  </si>
+  <si>
+    <t>○√</t>
+  </si>
+  <si>
+    <t>2√</t>
+  </si>
+  <si>
+    <t>○√</t>
+  </si>
+  <si>
+    <t>2√</t>
+  </si>
+  <si>
+    <t>2○</t>
+  </si>
+  <si>
+    <t>○√</t>
+  </si>
+  <si>
+    <t>2√</t>
+  </si>
+  <si>
+    <t>○√</t>
+  </si>
+  <si>
+    <t>2√</t>
+  </si>
+  <si>
+    <t>2○</t>
+  </si>
+  <si>
+    <t>2√</t>
+  </si>
+  <si>
+    <t>2○</t>
+  </si>
+  <si>
+    <t>2√</t>
+  </si>
+  <si>
+    <t>○√</t>
+  </si>
+  <si>
+    <t>2√</t>
+  </si>
+  <si>
+    <t>○√</t>
+  </si>
+  <si>
+    <t>2√</t>
+  </si>
+  <si>
+    <t>○√</t>
+  </si>
+  <si>
+    <t>2√</t>
+  </si>
+  <si>
+    <t>第17周</t>
+  </si>
+  <si>
+    <t>第18周</t>
+  </si>
+  <si>
+    <t>出勤次数</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>出勤率</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>97%</t>
+  </si>
+  <si>
+    <t>89%</t>
+  </si>
+  <si>
+    <t>42%</t>
+  </si>
+  <si>
+    <t>78%</t>
+  </si>
+  <si>
+    <t>8%</t>
+  </si>
+  <si>
+    <t>83%</t>
+  </si>
+  <si>
+    <t>75%</t>
+  </si>
+  <si>
+    <t>89%</t>
+  </si>
+  <si>
+    <t>67%</t>
+  </si>
+  <si>
+    <t>72%</t>
+  </si>
+  <si>
+    <t>92%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>83%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>64%</t>
+  </si>
+  <si>
+    <t>78%</t>
+  </si>
+  <si>
+    <t>92%</t>
+  </si>
+  <si>
+    <t>86%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>69%</t>
+  </si>
+  <si>
+    <t>81%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>97%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>72%</t>
+  </si>
+  <si>
+    <t>97%</t>
+  </si>
+  <si>
+    <t>94%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>97%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>97%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>97%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>97%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>94%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>97%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>94%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>97%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
   <si>
     <t>序号</t>
   </si>
@@ -6921,7 +8643,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -6933,16 +8655,18 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6984,79 +8708,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1722</v>
+        <v>2296</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1723</v>
+        <v>2297</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1795</v>
+        <v>2369</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>1866</v>
+        <v>2440</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>1868</v>
+        <v>2442</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>1880</v>
+        <v>2454</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>1891</v>
+        <v>2465</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>1909</v>
+        <v>2483</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>1928</v>
+        <v>2502</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>1948</v>
+        <v>2522</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>1967</v>
+        <v>2541</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>1978</v>
+        <v>2552</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>1993</v>
+        <v>2567</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>2013</v>
+        <v>2587</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>2030</v>
+        <v>2604</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>2052</v>
+        <v>2626</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>2071</v>
+        <v>2645</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>2105</v>
+        <v>2679</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>2128</v>
+        <v>2702</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>2155</v>
+        <v>2729</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>2174</v>
+        <v>2748</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>2198</v>
+        <v>2772</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>2199</v>
+        <v>2773</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>2200</v>
+        <v>2774</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>2248</v>
+        <v>2822</v>
       </c>
     </row>
     <row r="2">
@@ -7064,72 +8788,72 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1724</v>
+        <v>2298</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1796</v>
+        <v>2370</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>1867</v>
+        <v>2441</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1869</v>
+        <v>2443</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>1881</v>
+        <v>2455</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>1892</v>
+        <v>2466</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>1910</v>
+        <v>2484</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>1929</v>
+        <v>2503</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>1949</v>
+        <v>2523</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>1968</v>
+        <v>2542</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>1979</v>
+        <v>2553</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>1994</v>
+        <v>2568</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>2014</v>
+        <v>2588</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>2031</v>
+        <v>2605</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>2053</v>
+        <v>2627</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>2072</v>
+        <v>2646</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>2106</v>
+        <v>2680</v>
       </c>
       <c r="S2" s="0" t="s">
-        <v>2129</v>
+        <v>2703</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>2156</v>
+        <v>2730</v>
       </c>
       <c r="U2" s="0" t="s">
-        <v>2175</v>
+        <v>2749</v>
       </c>
       <c r="V2" s="0"/>
       <c r="W2" s="0"/>
       <c r="X2" s="0" t="s">
-        <v>2201</v>
+        <v>2775</v>
       </c>
       <c r="Y2" s="0" t="s">
-        <v>2249</v>
+        <v>2823</v>
       </c>
     </row>
     <row r="3">
@@ -7137,72 +8861,72 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>1725</v>
+        <v>2299</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>1797</v>
+        <v>2371</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>1867</v>
+        <v>2441</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>1869</v>
+        <v>2443</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>1882</v>
+        <v>2456</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>1893</v>
+        <v>2467</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>1911</v>
+        <v>2485</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>1930</v>
+        <v>2504</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>1950</v>
+        <v>2524</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>1969</v>
+        <v>2543</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>1980</v>
+        <v>2554</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>1995</v>
+        <v>2569</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>2015</v>
+        <v>2589</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>2032</v>
+        <v>2606</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>2054</v>
+        <v>2628</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>2073</v>
+        <v>2647</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>2107</v>
+        <v>2681</v>
       </c>
       <c r="S3" s="0" t="s">
-        <v>2130</v>
+        <v>2704</v>
       </c>
       <c r="T3" s="0" t="s">
-        <v>2157</v>
+        <v>2731</v>
       </c>
       <c r="U3" s="0" t="s">
-        <v>2176</v>
+        <v>2750</v>
       </c>
       <c r="V3" s="0"/>
       <c r="W3" s="0"/>
       <c r="X3" s="0" t="s">
-        <v>2202</v>
+        <v>2776</v>
       </c>
       <c r="Y3" s="0" t="s">
-        <v>2250</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="4">
@@ -7210,72 +8934,72 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>1726</v>
+        <v>2300</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>1798</v>
+        <v>2372</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>1867</v>
+        <v>2441</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>1869</v>
+        <v>2443</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>1882</v>
+        <v>2456</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>1893</v>
+        <v>2467</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>1911</v>
+        <v>2485</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>1931</v>
+        <v>2505</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>1950</v>
+        <v>2524</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>1969</v>
+        <v>2543</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>1980</v>
+        <v>2554</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>1996</v>
+        <v>2570</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>2015</v>
+        <v>2589</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>2033</v>
+        <v>2607</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>2054</v>
+        <v>2628</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>2073</v>
+        <v>2647</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>2108</v>
+        <v>2682</v>
       </c>
       <c r="S4" s="0" t="s">
-        <v>2131</v>
+        <v>2705</v>
       </c>
       <c r="T4" s="0" t="s">
-        <v>2158</v>
+        <v>2732</v>
       </c>
       <c r="U4" s="0" t="s">
-        <v>2176</v>
+        <v>2750</v>
       </c>
       <c r="V4" s="0"/>
       <c r="W4" s="0"/>
       <c r="X4" s="0" t="s">
-        <v>2203</v>
+        <v>2777</v>
       </c>
       <c r="Y4" s="0" t="s">
-        <v>2251</v>
+        <v>2825</v>
       </c>
     </row>
     <row r="5">
@@ -7283,72 +9007,72 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>1727</v>
+        <v>2301</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>1799</v>
+        <v>2373</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>1867</v>
+        <v>2441</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>1869</v>
+        <v>2443</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>1883</v>
+        <v>2457</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>1894</v>
+        <v>2468</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>1911</v>
+        <v>2485</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>1932</v>
+        <v>2506</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>1951</v>
+        <v>2525</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>1970</v>
+        <v>2544</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>1981</v>
+        <v>2555</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>1996</v>
+        <v>2570</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>2016</v>
+        <v>2590</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>2034</v>
+        <v>2608</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>2054</v>
+        <v>2628</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>2074</v>
+        <v>2648</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>2109</v>
+        <v>2683</v>
       </c>
       <c r="S5" s="0" t="s">
-        <v>2132</v>
+        <v>2706</v>
       </c>
       <c r="T5" s="0" t="s">
-        <v>2159</v>
+        <v>2733</v>
       </c>
       <c r="U5" s="0" t="s">
-        <v>2177</v>
+        <v>2751</v>
       </c>
       <c r="V5" s="0"/>
       <c r="W5" s="0"/>
       <c r="X5" s="0" t="s">
-        <v>2204</v>
+        <v>2778</v>
       </c>
       <c r="Y5" s="0" t="s">
-        <v>2252</v>
+        <v>2826</v>
       </c>
     </row>
     <row r="6">
@@ -7356,72 +9080,72 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>1728</v>
+        <v>2302</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>1800</v>
+        <v>2374</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>1867</v>
+        <v>2441</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>1869</v>
+        <v>2443</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>1883</v>
+        <v>2457</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>1894</v>
+        <v>2468</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>1911</v>
+        <v>2485</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>1933</v>
+        <v>2507</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>1952</v>
+        <v>2526</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>1971</v>
+        <v>2545</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>1982</v>
+        <v>2556</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>1996</v>
+        <v>2570</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>2016</v>
+        <v>2590</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>2034</v>
+        <v>2608</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>2055</v>
+        <v>2629</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>2075</v>
+        <v>2649</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>2110</v>
+        <v>2684</v>
       </c>
       <c r="S6" s="0" t="s">
-        <v>2133</v>
+        <v>2707</v>
       </c>
       <c r="T6" s="0" t="s">
-        <v>2160</v>
+        <v>2734</v>
       </c>
       <c r="U6" s="0" t="s">
-        <v>2178</v>
+        <v>2752</v>
       </c>
       <c r="V6" s="0"/>
       <c r="W6" s="0"/>
       <c r="X6" s="0" t="s">
-        <v>2205</v>
+        <v>2779</v>
       </c>
       <c r="Y6" s="0" t="s">
-        <v>2253</v>
+        <v>2827</v>
       </c>
     </row>
     <row r="7">
@@ -7429,70 +9153,70 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>1729</v>
+        <v>2303</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>1801</v>
+        <v>2375</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>1867</v>
+        <v>2441</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>1869</v>
+        <v>2443</v>
       </c>
       <c r="F7" s="0"/>
       <c r="G7" s="0" t="s">
-        <v>1895</v>
+        <v>2469</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>1912</v>
+        <v>2486</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>1934</v>
+        <v>2508</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>1953</v>
+        <v>2527</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>1972</v>
+        <v>2546</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>1983</v>
+        <v>2557</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>1997</v>
+        <v>2571</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>2016</v>
+        <v>2590</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>2035</v>
+        <v>2609</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>2056</v>
+        <v>2630</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>2076</v>
+        <v>2650</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>2111</v>
+        <v>2685</v>
       </c>
       <c r="S7" s="0" t="s">
-        <v>2134</v>
+        <v>2708</v>
       </c>
       <c r="T7" s="0" t="s">
-        <v>2160</v>
+        <v>2734</v>
       </c>
       <c r="U7" s="0" t="s">
-        <v>2178</v>
+        <v>2752</v>
       </c>
       <c r="V7" s="0"/>
       <c r="W7" s="0"/>
       <c r="X7" s="0" t="s">
-        <v>2206</v>
+        <v>2780</v>
       </c>
       <c r="Y7" s="0" t="s">
-        <v>2254</v>
+        <v>2828</v>
       </c>
     </row>
     <row r="8">
@@ -7500,72 +9224,72 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>1730</v>
+        <v>2304</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>1802</v>
+        <v>2376</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>1867</v>
+        <v>2441</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>1869</v>
+        <v>2443</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>1884</v>
+        <v>2458</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>1896</v>
+        <v>2470</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>1913</v>
+        <v>2487</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>1935</v>
+        <v>2509</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>1954</v>
+        <v>2528</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>1973</v>
+        <v>2547</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>1984</v>
+        <v>2558</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>1998</v>
+        <v>2572</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>2017</v>
+        <v>2591</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>2036</v>
+        <v>2610</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>2057</v>
+        <v>2631</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>2077</v>
+        <v>2651</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>2112</v>
+        <v>2686</v>
       </c>
       <c r="S8" s="0" t="s">
-        <v>2135</v>
+        <v>2709</v>
       </c>
       <c r="T8" s="0" t="s">
-        <v>2161</v>
+        <v>2735</v>
       </c>
       <c r="U8" s="0" t="s">
-        <v>2178</v>
+        <v>2752</v>
       </c>
       <c r="V8" s="0"/>
       <c r="W8" s="0"/>
       <c r="X8" s="0" t="s">
-        <v>2207</v>
+        <v>2781</v>
       </c>
       <c r="Y8" s="0" t="s">
-        <v>2255</v>
+        <v>2829</v>
       </c>
     </row>
     <row r="9">
@@ -7573,72 +9297,72 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>1731</v>
+        <v>2305</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>1803</v>
+        <v>2377</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>1867</v>
+        <v>2441</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>1869</v>
+        <v>2443</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>1884</v>
+        <v>2458</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>1896</v>
+        <v>2470</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>1913</v>
+        <v>2487</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>1935</v>
+        <v>2509</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>1954</v>
+        <v>2528</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>1973</v>
+        <v>2547</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>1984</v>
+        <v>2558</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>1999</v>
+        <v>2573</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>2017</v>
+        <v>2591</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>2036</v>
+        <v>2610</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>2058</v>
+        <v>2632</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>2077</v>
+        <v>2651</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>2112</v>
+        <v>2686</v>
       </c>
       <c r="S9" s="0" t="s">
-        <v>2136</v>
+        <v>2710</v>
       </c>
       <c r="T9" s="0" t="s">
-        <v>2161</v>
+        <v>2735</v>
       </c>
       <c r="U9" s="0" t="s">
-        <v>2179</v>
+        <v>2753</v>
       </c>
       <c r="V9" s="0"/>
       <c r="W9" s="0"/>
       <c r="X9" s="0" t="s">
-        <v>2207</v>
+        <v>2781</v>
       </c>
       <c r="Y9" s="0" t="s">
-        <v>2255</v>
+        <v>2829</v>
       </c>
     </row>
     <row r="10">
@@ -7646,72 +9370,72 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>1732</v>
+        <v>2306</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>1804</v>
+        <v>2378</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>1867</v>
+        <v>2441</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>1869</v>
+        <v>2443</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>1884</v>
+        <v>2458</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>1897</v>
+        <v>2471</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>1914</v>
+        <v>2488</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>1935</v>
+        <v>2509</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>1954</v>
+        <v>2528</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>1973</v>
+        <v>2547</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>1984</v>
+        <v>2558</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>2000</v>
+        <v>2574</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>2017</v>
+        <v>2591</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>2036</v>
+        <v>2610</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>2058</v>
+        <v>2632</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>2077</v>
+        <v>2651</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>2112</v>
+        <v>2686</v>
       </c>
       <c r="S10" s="0" t="s">
-        <v>2137</v>
+        <v>2711</v>
       </c>
       <c r="T10" s="0" t="s">
-        <v>2162</v>
+        <v>2736</v>
       </c>
       <c r="U10" s="0" t="s">
-        <v>2179</v>
+        <v>2753</v>
       </c>
       <c r="V10" s="0"/>
       <c r="W10" s="0"/>
       <c r="X10" s="0" t="s">
-        <v>2208</v>
+        <v>2782</v>
       </c>
       <c r="Y10" s="0" t="s">
-        <v>2256</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="11">
@@ -7719,72 +9443,72 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>1733</v>
+        <v>2307</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>1805</v>
+        <v>2379</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>1867</v>
+        <v>2441</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>1869</v>
+        <v>2443</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>1884</v>
+        <v>2458</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>1898</v>
+        <v>2472</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>1915</v>
+        <v>2489</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>1935</v>
+        <v>2509</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>1955</v>
+        <v>2529</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>1973</v>
+        <v>2547</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>1984</v>
+        <v>2558</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>2000</v>
+        <v>2574</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>2018</v>
+        <v>2592</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>2037</v>
+        <v>2611</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>2059</v>
+        <v>2633</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>2078</v>
+        <v>2652</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>2112</v>
+        <v>2686</v>
       </c>
       <c r="S11" s="0" t="s">
-        <v>2138</v>
+        <v>2712</v>
       </c>
       <c r="T11" s="0" t="s">
-        <v>2162</v>
+        <v>2736</v>
       </c>
       <c r="U11" s="0" t="s">
-        <v>2179</v>
+        <v>2753</v>
       </c>
       <c r="V11" s="0"/>
       <c r="W11" s="0"/>
       <c r="X11" s="0" t="s">
-        <v>2208</v>
+        <v>2782</v>
       </c>
       <c r="Y11" s="0" t="s">
-        <v>2256</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="12">
@@ -7792,72 +9516,72 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>1734</v>
+        <v>2308</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>1806</v>
+        <v>2380</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>1867</v>
+        <v>2441</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>1869</v>
+        <v>2443</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>1884</v>
+        <v>2458</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>1898</v>
+        <v>2472</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>1915</v>
+        <v>2489</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>1936</v>
+        <v>2510</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>1956</v>
+        <v>2530</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>1973</v>
+        <v>2547</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>1984</v>
+        <v>2558</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>2001</v>
+        <v>2575</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>2019</v>
+        <v>2593</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>2037</v>
+        <v>2611</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>2060</v>
+        <v>2634</v>
       </c>
       <c r="Q12" s="0" t="s">
-        <v>2079</v>
+        <v>2653</v>
       </c>
       <c r="R12" s="0" t="s">
-        <v>2112</v>
+        <v>2686</v>
       </c>
       <c r="S12" s="0" t="s">
-        <v>2139</v>
+        <v>2713</v>
       </c>
       <c r="T12" s="0" t="s">
-        <v>2163</v>
+        <v>2737</v>
       </c>
       <c r="U12" s="0" t="s">
-        <v>2180</v>
+        <v>2754</v>
       </c>
       <c r="V12" s="0"/>
       <c r="W12" s="0"/>
       <c r="X12" s="0" t="s">
-        <v>2209</v>
+        <v>2783</v>
       </c>
       <c r="Y12" s="0" t="s">
-        <v>2257</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="13">
@@ -7865,72 +9589,72 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>1735</v>
+        <v>2309</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>1807</v>
+        <v>2381</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>1867</v>
+        <v>2441</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>1869</v>
+        <v>2443</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>1884</v>
+        <v>2458</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>1899</v>
+        <v>2473</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>1915</v>
+        <v>2489</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>1936</v>
+        <v>2510</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>1957</v>
+        <v>2531</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>1973</v>
+        <v>2547</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>1985</v>
+        <v>2559</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>2002</v>
+        <v>2576</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>2020</v>
+        <v>2594</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>2037</v>
+        <v>2611</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>2060</v>
+        <v>2634</v>
       </c>
       <c r="Q13" s="0" t="s">
-        <v>2080</v>
+        <v>2654</v>
       </c>
       <c r="R13" s="0" t="s">
-        <v>2113</v>
+        <v>2687</v>
       </c>
       <c r="S13" s="0" t="s">
-        <v>2140</v>
+        <v>2714</v>
       </c>
       <c r="T13" s="0" t="s">
-        <v>2164</v>
+        <v>2738</v>
       </c>
       <c r="U13" s="0" t="s">
-        <v>2181</v>
+        <v>2755</v>
       </c>
       <c r="V13" s="0"/>
       <c r="W13" s="0"/>
       <c r="X13" s="0" t="s">
-        <v>2210</v>
+        <v>2784</v>
       </c>
       <c r="Y13" s="0" t="s">
-        <v>2258</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="14">
@@ -7938,72 +9662,72 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>1736</v>
+        <v>2310</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>1808</v>
+        <v>2382</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>1867</v>
+        <v>2441</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>1869</v>
+        <v>2443</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>1885</v>
+        <v>2459</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>1900</v>
+        <v>2474</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>1916</v>
+        <v>2490</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>1936</v>
+        <v>2510</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>1957</v>
+        <v>2531</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>1973</v>
+        <v>2547</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>1986</v>
+        <v>2560</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>2002</v>
+        <v>2576</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>2021</v>
+        <v>2595</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>2037</v>
+        <v>2611</v>
       </c>
       <c r="P14" s="0" t="s">
-        <v>2060</v>
+        <v>2634</v>
       </c>
       <c r="Q14" s="0" t="s">
-        <v>2081</v>
+        <v>2655</v>
       </c>
       <c r="R14" s="0" t="s">
-        <v>2113</v>
+        <v>2687</v>
       </c>
       <c r="S14" s="0" t="s">
-        <v>2141</v>
+        <v>2715</v>
       </c>
       <c r="T14" s="0" t="s">
-        <v>2165</v>
+        <v>2739</v>
       </c>
       <c r="U14" s="0" t="s">
-        <v>2182</v>
+        <v>2756</v>
       </c>
       <c r="V14" s="0"/>
       <c r="W14" s="0"/>
       <c r="X14" s="0" t="s">
-        <v>2211</v>
+        <v>2785</v>
       </c>
       <c r="Y14" s="0" t="s">
-        <v>2259</v>
+        <v>2833</v>
       </c>
     </row>
     <row r="15">
@@ -8011,72 +9735,72 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>1737</v>
+        <v>2311</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>1809</v>
+        <v>2383</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>1867</v>
+        <v>2441</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>1869</v>
+        <v>2443</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>1886</v>
+        <v>2460</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>1901</v>
+        <v>2475</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>1917</v>
+        <v>2491</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>1937</v>
+        <v>2511</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>1958</v>
+        <v>2532</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>1973</v>
+        <v>2547</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>1986</v>
+        <v>2560</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>2003</v>
+        <v>2577</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>2021</v>
+        <v>2595</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>2037</v>
+        <v>2611</v>
       </c>
       <c r="P15" s="0" t="s">
-        <v>2060</v>
+        <v>2634</v>
       </c>
       <c r="Q15" s="0" t="s">
-        <v>2082</v>
+        <v>2656</v>
       </c>
       <c r="R15" s="0" t="s">
-        <v>2113</v>
+        <v>2687</v>
       </c>
       <c r="S15" s="0" t="s">
-        <v>2142</v>
+        <v>2716</v>
       </c>
       <c r="T15" s="0" t="s">
-        <v>2165</v>
+        <v>2739</v>
       </c>
       <c r="U15" s="0" t="s">
-        <v>2182</v>
+        <v>2756</v>
       </c>
       <c r="V15" s="0"/>
       <c r="W15" s="0"/>
       <c r="X15" s="0" t="s">
-        <v>2212</v>
+        <v>2786</v>
       </c>
       <c r="Y15" s="0" t="s">
-        <v>2260</v>
+        <v>2834</v>
       </c>
     </row>
     <row r="16">
@@ -8084,72 +9808,72 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>1738</v>
+        <v>2312</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>1810</v>
+        <v>2384</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>1867</v>
+        <v>2441</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>1869</v>
+        <v>2443</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>1886</v>
+        <v>2460</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>1901</v>
+        <v>2475</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>1917</v>
+        <v>2491</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>1937</v>
+        <v>2511</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>1958</v>
+        <v>2532</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>1973</v>
+        <v>2547</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>1986</v>
+        <v>2560</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>2003</v>
+        <v>2577</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>2021</v>
+        <v>2595</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>2038</v>
+        <v>2612</v>
       </c>
       <c r="P16" s="0" t="s">
-        <v>2060</v>
+        <v>2634</v>
       </c>
       <c r="Q16" s="0" t="s">
-        <v>2083</v>
+        <v>2657</v>
       </c>
       <c r="R16" s="0" t="s">
-        <v>2113</v>
+        <v>2687</v>
       </c>
       <c r="S16" s="0" t="s">
-        <v>2142</v>
+        <v>2716</v>
       </c>
       <c r="T16" s="0" t="s">
-        <v>2165</v>
+        <v>2739</v>
       </c>
       <c r="U16" s="0" t="s">
-        <v>2182</v>
+        <v>2756</v>
       </c>
       <c r="V16" s="0"/>
       <c r="W16" s="0"/>
       <c r="X16" s="0" t="s">
-        <v>2213</v>
+        <v>2787</v>
       </c>
       <c r="Y16" s="0" t="s">
-        <v>2261</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="17">
@@ -8157,72 +9881,72 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>1739</v>
+        <v>2313</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>1811</v>
+        <v>2385</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>1867</v>
+        <v>2441</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>1869</v>
+        <v>2443</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>1886</v>
+        <v>2460</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>1902</v>
+        <v>2476</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>1917</v>
+        <v>2491</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>1937</v>
+        <v>2511</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>1958</v>
+        <v>2532</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>1973</v>
+        <v>2547</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>1986</v>
+        <v>2560</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>2003</v>
+        <v>2577</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>2021</v>
+        <v>2595</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>2039</v>
+        <v>2613</v>
       </c>
       <c r="P17" s="0" t="s">
-        <v>2060</v>
+        <v>2634</v>
       </c>
       <c r="Q17" s="0" t="s">
-        <v>2084</v>
+        <v>2658</v>
       </c>
       <c r="R17" s="0" t="s">
-        <v>2114</v>
+        <v>2688</v>
       </c>
       <c r="S17" s="0" t="s">
-        <v>2142</v>
+        <v>2716</v>
       </c>
       <c r="T17" s="0" t="s">
-        <v>2165</v>
+        <v>2739</v>
       </c>
       <c r="U17" s="0" t="s">
-        <v>2182</v>
+        <v>2756</v>
       </c>
       <c r="V17" s="0"/>
       <c r="W17" s="0"/>
       <c r="X17" s="0" t="s">
-        <v>2214</v>
+        <v>2788</v>
       </c>
       <c r="Y17" s="0" t="s">
-        <v>2262</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="18">
@@ -8230,70 +9954,70 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>1740</v>
+        <v>2314</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>1812</v>
+        <v>2386</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>1867</v>
+        <v>2441</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>1869</v>
+        <v>2443</v>
       </c>
       <c r="F18" s="0"/>
       <c r="G18" s="0" t="s">
-        <v>1903</v>
+        <v>2477</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>1918</v>
+        <v>2492</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>1938</v>
+        <v>2512</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>1959</v>
+        <v>2533</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>1974</v>
+        <v>2548</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>1987</v>
+        <v>2561</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>2004</v>
+        <v>2578</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>2022</v>
+        <v>2596</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>2040</v>
+        <v>2614</v>
       </c>
       <c r="P18" s="0" t="s">
-        <v>2061</v>
+        <v>2635</v>
       </c>
       <c r="Q18" s="0" t="s">
-        <v>2085</v>
+        <v>2659</v>
       </c>
       <c r="R18" s="0" t="s">
-        <v>2115</v>
+        <v>2689</v>
       </c>
       <c r="S18" s="0" t="s">
-        <v>2143</v>
+        <v>2717</v>
       </c>
       <c r="T18" s="0" t="s">
-        <v>2166</v>
+        <v>2740</v>
       </c>
       <c r="U18" s="0" t="s">
-        <v>2183</v>
+        <v>2757</v>
       </c>
       <c r="V18" s="0"/>
       <c r="W18" s="0"/>
       <c r="X18" s="0" t="s">
-        <v>2215</v>
+        <v>2789</v>
       </c>
       <c r="Y18" s="0" t="s">
-        <v>2263</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="19">
@@ -8301,72 +10025,72 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>1741</v>
+        <v>2315</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>1813</v>
+        <v>2387</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>1867</v>
+        <v>2441</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>1869</v>
+        <v>2443</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>1887</v>
+        <v>2461</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>1904</v>
+        <v>2478</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>1919</v>
+        <v>2493</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>1939</v>
+        <v>2513</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>1960</v>
+        <v>2534</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>1975</v>
+        <v>2549</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>1988</v>
+        <v>2562</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>2005</v>
+        <v>2579</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>2023</v>
+        <v>2597</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>2041</v>
+        <v>2615</v>
       </c>
       <c r="P19" s="0" t="s">
-        <v>2062</v>
+        <v>2636</v>
       </c>
       <c r="Q19" s="0" t="s">
-        <v>2086</v>
+        <v>2660</v>
       </c>
       <c r="R19" s="0" t="s">
-        <v>2115</v>
+        <v>2689</v>
       </c>
       <c r="S19" s="0" t="s">
-        <v>2143</v>
+        <v>2717</v>
       </c>
       <c r="T19" s="0" t="s">
-        <v>2166</v>
+        <v>2740</v>
       </c>
       <c r="U19" s="0" t="s">
-        <v>2184</v>
+        <v>2758</v>
       </c>
       <c r="V19" s="0"/>
       <c r="W19" s="0"/>
       <c r="X19" s="0" t="s">
-        <v>2216</v>
+        <v>2790</v>
       </c>
       <c r="Y19" s="0" t="s">
-        <v>2264</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="20">
@@ -8374,72 +10098,72 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>1742</v>
+        <v>2316</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>1814</v>
+        <v>2388</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>1867</v>
+        <v>2441</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>1869</v>
+        <v>2443</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>1888</v>
+        <v>2462</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>1904</v>
+        <v>2478</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>1920</v>
+        <v>2494</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>1940</v>
+        <v>2514</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>1960</v>
+        <v>2534</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>1975</v>
+        <v>2549</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>1988</v>
+        <v>2562</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>2006</v>
+        <v>2580</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>2023</v>
+        <v>2597</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>2041</v>
+        <v>2615</v>
       </c>
       <c r="P20" s="0" t="s">
-        <v>2062</v>
+        <v>2636</v>
       </c>
       <c r="Q20" s="0" t="s">
-        <v>2086</v>
+        <v>2660</v>
       </c>
       <c r="R20" s="0" t="s">
-        <v>2116</v>
+        <v>2690</v>
       </c>
       <c r="S20" s="0" t="s">
-        <v>2144</v>
+        <v>2718</v>
       </c>
       <c r="T20" s="0" t="s">
-        <v>2167</v>
+        <v>2741</v>
       </c>
       <c r="U20" s="0" t="s">
-        <v>2185</v>
+        <v>2759</v>
       </c>
       <c r="V20" s="0"/>
       <c r="W20" s="0"/>
       <c r="X20" s="0" t="s">
-        <v>2217</v>
+        <v>2791</v>
       </c>
       <c r="Y20" s="0" t="s">
-        <v>2265</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="21">
@@ -8447,72 +10171,72 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>1743</v>
+        <v>2317</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>1815</v>
+        <v>2389</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>1867</v>
+        <v>2441</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>1869</v>
+        <v>2443</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>1888</v>
+        <v>2462</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>1904</v>
+        <v>2478</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>1921</v>
+        <v>2495</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>1941</v>
+        <v>2515</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>1960</v>
+        <v>2534</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>1975</v>
+        <v>2549</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>1988</v>
+        <v>2562</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>2006</v>
+        <v>2580</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>2023</v>
+        <v>2597</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>2042</v>
+        <v>2616</v>
       </c>
       <c r="P21" s="0" t="s">
-        <v>2062</v>
+        <v>2636</v>
       </c>
       <c r="Q21" s="0" t="s">
-        <v>2087</v>
+        <v>2661</v>
       </c>
       <c r="R21" s="0" t="s">
-        <v>2117</v>
+        <v>2691</v>
       </c>
       <c r="S21" s="0" t="s">
-        <v>2145</v>
+        <v>2719</v>
       </c>
       <c r="T21" s="0" t="s">
-        <v>2167</v>
+        <v>2741</v>
       </c>
       <c r="U21" s="0" t="s">
-        <v>2185</v>
+        <v>2759</v>
       </c>
       <c r="V21" s="0"/>
       <c r="W21" s="0"/>
       <c r="X21" s="0" t="s">
-        <v>2218</v>
+        <v>2792</v>
       </c>
       <c r="Y21" s="0" t="s">
-        <v>2266</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="22">
@@ -8520,72 +10244,72 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>1744</v>
+        <v>2318</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>1816</v>
+        <v>2390</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>1867</v>
+        <v>2441</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>1869</v>
+        <v>2443</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>1888</v>
+        <v>2462</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>1904</v>
+        <v>2478</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>1921</v>
+        <v>2495</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>1941</v>
+        <v>2515</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>1960</v>
+        <v>2534</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>1975</v>
+        <v>2549</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>1988</v>
+        <v>2562</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>2006</v>
+        <v>2580</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>2023</v>
+        <v>2597</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>2042</v>
+        <v>2616</v>
       </c>
       <c r="P22" s="0" t="s">
-        <v>2063</v>
+        <v>2637</v>
       </c>
       <c r="Q22" s="0" t="s">
-        <v>2088</v>
+        <v>2662</v>
       </c>
       <c r="R22" s="0" t="s">
-        <v>2117</v>
+        <v>2691</v>
       </c>
       <c r="S22" s="0" t="s">
-        <v>2146</v>
+        <v>2720</v>
       </c>
       <c r="T22" s="0" t="s">
-        <v>2167</v>
+        <v>2741</v>
       </c>
       <c r="U22" s="0" t="s">
-        <v>2186</v>
+        <v>2760</v>
       </c>
       <c r="V22" s="0"/>
       <c r="W22" s="0"/>
       <c r="X22" s="0" t="s">
-        <v>2219</v>
+        <v>2793</v>
       </c>
       <c r="Y22" s="0" t="s">
-        <v>2267</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="23">
@@ -8593,72 +10317,72 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>1745</v>
+        <v>2319</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>1817</v>
+        <v>2391</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>1867</v>
+        <v>2441</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>1869</v>
+        <v>2443</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>1888</v>
+        <v>2462</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>1904</v>
+        <v>2478</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>1921</v>
+        <v>2495</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>1941</v>
+        <v>2515</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>1960</v>
+        <v>2534</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>1975</v>
+        <v>2549</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>1988</v>
+        <v>2562</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>2006</v>
+        <v>2580</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>2023</v>
+        <v>2597</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>2043</v>
+        <v>2617</v>
       </c>
       <c r="P23" s="0" t="s">
-        <v>2064</v>
+        <v>2638</v>
       </c>
       <c r="Q23" s="0" t="s">
-        <v>2088</v>
+        <v>2662</v>
       </c>
       <c r="R23" s="0" t="s">
-        <v>2117</v>
+        <v>2691</v>
       </c>
       <c r="S23" s="0" t="s">
-        <v>2147</v>
+        <v>2721</v>
       </c>
       <c r="T23" s="0" t="s">
-        <v>2167</v>
+        <v>2741</v>
       </c>
       <c r="U23" s="0" t="s">
-        <v>2187</v>
+        <v>2761</v>
       </c>
       <c r="V23" s="0"/>
       <c r="W23" s="0"/>
       <c r="X23" s="0" t="s">
-        <v>2220</v>
+        <v>2794</v>
       </c>
       <c r="Y23" s="0" t="s">
-        <v>2268</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="24">
@@ -8666,72 +10390,72 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>1746</v>
+        <v>2320</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>1818</v>
+        <v>2392</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>1867</v>
+        <v>2441</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>1869</v>
+        <v>2443</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>1888</v>
+        <v>2462</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>1904</v>
+        <v>2478</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>1921</v>
+        <v>2495</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>1941</v>
+        <v>2515</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>1960</v>
+        <v>2534</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>1975</v>
+        <v>2549</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>1988</v>
+        <v>2562</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>2006</v>
+        <v>2580</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>2023</v>
+        <v>2597</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>2043</v>
+        <v>2617</v>
       </c>
       <c r="P24" s="0" t="s">
-        <v>2064</v>
+        <v>2638</v>
       </c>
       <c r="Q24" s="0" t="s">
-        <v>2088</v>
+        <v>2662</v>
       </c>
       <c r="R24" s="0" t="s">
-        <v>2117</v>
+        <v>2691</v>
       </c>
       <c r="S24" s="0" t="s">
-        <v>2147</v>
+        <v>2721</v>
       </c>
       <c r="T24" s="0" t="s">
-        <v>2167</v>
+        <v>2741</v>
       </c>
       <c r="U24" s="0" t="s">
-        <v>2187</v>
+        <v>2761</v>
       </c>
       <c r="V24" s="0"/>
       <c r="W24" s="0"/>
       <c r="X24" s="0" t="s">
-        <v>2220</v>
+        <v>2794</v>
       </c>
       <c r="Y24" s="0" t="s">
-        <v>2268</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="25">
@@ -8739,72 +10463,72 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>1747</v>
+        <v>2321</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>1819</v>
+        <v>2393</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>1867</v>
+        <v>2441</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>1869</v>
+        <v>2443</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>1888</v>
+        <v>2462</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>1904</v>
+        <v>2478</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>1921</v>
+        <v>2495</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>1942</v>
+        <v>2516</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>1961</v>
+        <v>2535</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>1975</v>
+        <v>2549</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>1988</v>
+        <v>2562</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>2007</v>
+        <v>2581</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>2024</v>
+        <v>2598</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>2044</v>
+        <v>2618</v>
       </c>
       <c r="P25" s="0" t="s">
-        <v>2065</v>
+        <v>2639</v>
       </c>
       <c r="Q25" s="0" t="s">
-        <v>2088</v>
+        <v>2662</v>
       </c>
       <c r="R25" s="0" t="s">
-        <v>2118</v>
+        <v>2692</v>
       </c>
       <c r="S25" s="0" t="s">
-        <v>2148</v>
+        <v>2722</v>
       </c>
       <c r="T25" s="0" t="s">
-        <v>2168</v>
+        <v>2742</v>
       </c>
       <c r="U25" s="0" t="s">
-        <v>2187</v>
+        <v>2761</v>
       </c>
       <c r="V25" s="0"/>
       <c r="W25" s="0"/>
       <c r="X25" s="0" t="s">
-        <v>2221</v>
+        <v>2795</v>
       </c>
       <c r="Y25" s="0" t="s">
-        <v>2269</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="26">
@@ -8812,72 +10536,72 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>1748</v>
+        <v>2322</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>1820</v>
+        <v>2394</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>1867</v>
+        <v>2441</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>1869</v>
+        <v>2443</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>1888</v>
+        <v>2462</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>1904</v>
+        <v>2478</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>1921</v>
+        <v>2495</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>1943</v>
+        <v>2517</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>1962</v>
+        <v>2536</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>1975</v>
+        <v>2549</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>1988</v>
+        <v>2562</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>2008</v>
+        <v>2582</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>2025</v>
+        <v>2599</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>2045</v>
+        <v>2619</v>
       </c>
       <c r="P26" s="0" t="s">
-        <v>2066</v>
+        <v>2640</v>
       </c>
       <c r="Q26" s="0" t="s">
-        <v>2088</v>
+        <v>2662</v>
       </c>
       <c r="R26" s="0" t="s">
-        <v>2119</v>
+        <v>2693</v>
       </c>
       <c r="S26" s="0" t="s">
-        <v>2149</v>
+        <v>2723</v>
       </c>
       <c r="T26" s="0" t="s">
-        <v>2168</v>
+        <v>2742</v>
       </c>
       <c r="U26" s="0" t="s">
-        <v>2188</v>
+        <v>2762</v>
       </c>
       <c r="V26" s="0"/>
       <c r="W26" s="0"/>
       <c r="X26" s="0" t="s">
-        <v>2222</v>
+        <v>2796</v>
       </c>
       <c r="Y26" s="0" t="s">
-        <v>2270</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="27">
@@ -8885,72 +10609,72 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>1749</v>
+        <v>2323</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>1821</v>
+        <v>2395</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>1867</v>
+        <v>2441</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>1869</v>
+        <v>2443</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>1888</v>
+        <v>2462</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>1904</v>
+        <v>2478</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>1921</v>
+        <v>2495</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>1943</v>
+        <v>2517</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>1962</v>
+        <v>2536</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>1975</v>
+        <v>2549</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>1988</v>
+        <v>2562</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>2008</v>
+        <v>2582</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>2025</v>
+        <v>2599</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>2045</v>
+        <v>2619</v>
       </c>
       <c r="P27" s="0" t="s">
-        <v>2066</v>
+        <v>2640</v>
       </c>
       <c r="Q27" s="0" t="s">
-        <v>2088</v>
+        <v>2662</v>
       </c>
       <c r="R27" s="0" t="s">
-        <v>2119</v>
+        <v>2693</v>
       </c>
       <c r="S27" s="0" t="s">
-        <v>2150</v>
+        <v>2724</v>
       </c>
       <c r="T27" s="0" t="s">
-        <v>2169</v>
+        <v>2743</v>
       </c>
       <c r="U27" s="0" t="s">
-        <v>2189</v>
+        <v>2763</v>
       </c>
       <c r="V27" s="0"/>
       <c r="W27" s="0"/>
       <c r="X27" s="0" t="s">
-        <v>2223</v>
+        <v>2797</v>
       </c>
       <c r="Y27" s="0" t="s">
-        <v>2271</v>
+        <v>2845</v>
       </c>
     </row>
     <row r="28">
@@ -8958,72 +10682,72 @@
         <v>27</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>1750</v>
+        <v>2324</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>1822</v>
+        <v>2396</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>1867</v>
+        <v>2441</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>1869</v>
+        <v>2443</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>1888</v>
+        <v>2462</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>1904</v>
+        <v>2478</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>1921</v>
+        <v>2495</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>1943</v>
+        <v>2517</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>1962</v>
+        <v>2536</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>1975</v>
+        <v>2549</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>1988</v>
+        <v>2562</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>2008</v>
+        <v>2582</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>2025</v>
+        <v>2599</v>
       </c>
       <c r="O28" s="0" t="s">
-        <v>2045</v>
+        <v>2619</v>
       </c>
       <c r="P28" s="0" t="s">
-        <v>2066</v>
+        <v>2640</v>
       </c>
       <c r="Q28" s="0" t="s">
-        <v>2088</v>
+        <v>2662</v>
       </c>
       <c r="R28" s="0" t="s">
-        <v>2119</v>
+        <v>2693</v>
       </c>
       <c r="S28" s="0" t="s">
-        <v>2150</v>
+        <v>2724</v>
       </c>
       <c r="T28" s="0" t="s">
-        <v>2169</v>
+        <v>2743</v>
       </c>
       <c r="U28" s="0" t="s">
-        <v>2189</v>
+        <v>2763</v>
       </c>
       <c r="V28" s="0"/>
       <c r="W28" s="0"/>
       <c r="X28" s="0" t="s">
-        <v>2223</v>
+        <v>2797</v>
       </c>
       <c r="Y28" s="0" t="s">
-        <v>2271</v>
+        <v>2845</v>
       </c>
     </row>
     <row r="29">
@@ -9031,72 +10755,72 @@
         <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>1751</v>
+        <v>2325</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>1823</v>
+        <v>2397</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>1867</v>
+        <v>2441</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>1870</v>
+        <v>2444</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>1889</v>
+        <v>2463</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>1905</v>
+        <v>2479</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>1922</v>
+        <v>2496</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>1944</v>
+        <v>2518</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>1963</v>
+        <v>2537</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>1976</v>
+        <v>2550</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>1989</v>
+        <v>2563</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>2009</v>
+        <v>2583</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>2026</v>
+        <v>2600</v>
       </c>
       <c r="O29" s="0" t="s">
-        <v>2046</v>
+        <v>2620</v>
       </c>
       <c r="P29" s="0" t="s">
-        <v>2067</v>
+        <v>2641</v>
       </c>
       <c r="Q29" s="0" t="s">
-        <v>2089</v>
+        <v>2663</v>
       </c>
       <c r="R29" s="0" t="s">
-        <v>2120</v>
+        <v>2694</v>
       </c>
       <c r="S29" s="0" t="s">
-        <v>2151</v>
+        <v>2725</v>
       </c>
       <c r="T29" s="0" t="s">
-        <v>2170</v>
+        <v>2744</v>
       </c>
       <c r="U29" s="0" t="s">
-        <v>2190</v>
+        <v>2764</v>
       </c>
       <c r="V29" s="0"/>
       <c r="W29" s="0"/>
       <c r="X29" s="0" t="s">
-        <v>2224</v>
+        <v>2798</v>
       </c>
       <c r="Y29" s="0" t="s">
-        <v>2272</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="30">
@@ -9104,72 +10828,72 @@
         <v>29</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>1752</v>
+        <v>2326</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>1824</v>
+        <v>2398</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>1867</v>
+        <v>2441</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>1871</v>
+        <v>2445</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>1890</v>
+        <v>2464</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>1906</v>
+        <v>2480</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>1923</v>
+        <v>2497</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>1945</v>
+        <v>2519</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>1964</v>
+        <v>2538</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>1977</v>
+        <v>2551</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>1990</v>
+        <v>2564</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>2010</v>
+        <v>2584</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>2027</v>
+        <v>2601</v>
       </c>
       <c r="O30" s="0" t="s">
-        <v>2047</v>
+        <v>2621</v>
       </c>
       <c r="P30" s="0" t="s">
-        <v>2068</v>
+        <v>2642</v>
       </c>
       <c r="Q30" s="0" t="s">
-        <v>2090</v>
+        <v>2664</v>
       </c>
       <c r="R30" s="0" t="s">
-        <v>2121</v>
+        <v>2695</v>
       </c>
       <c r="S30" s="0" t="s">
-        <v>2152</v>
+        <v>2726</v>
       </c>
       <c r="T30" s="0" t="s">
-        <v>2171</v>
+        <v>2745</v>
       </c>
       <c r="U30" s="0" t="s">
-        <v>2191</v>
+        <v>2765</v>
       </c>
       <c r="V30" s="0"/>
       <c r="W30" s="0"/>
       <c r="X30" s="0" t="s">
-        <v>2225</v>
+        <v>2799</v>
       </c>
       <c r="Y30" s="0" t="s">
-        <v>2273</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="31">
@@ -9177,72 +10901,72 @@
         <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>1753</v>
+        <v>2327</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>1825</v>
+        <v>2399</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>1867</v>
+        <v>2441</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>1871</v>
+        <v>2445</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>1890</v>
+        <v>2464</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>1906</v>
+        <v>2480</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>1923</v>
+        <v>2497</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>1945</v>
+        <v>2519</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>1964</v>
+        <v>2538</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>1977</v>
+        <v>2551</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>1990</v>
+        <v>2564</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>2010</v>
+        <v>2584</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>2027</v>
+        <v>2601</v>
       </c>
       <c r="O31" s="0" t="s">
-        <v>2047</v>
+        <v>2621</v>
       </c>
       <c r="P31" s="0" t="s">
-        <v>2068</v>
+        <v>2642</v>
       </c>
       <c r="Q31" s="0" t="s">
-        <v>2090</v>
+        <v>2664</v>
       </c>
       <c r="R31" s="0" t="s">
-        <v>2122</v>
+        <v>2696</v>
       </c>
       <c r="S31" s="0" t="s">
-        <v>2152</v>
+        <v>2726</v>
       </c>
       <c r="T31" s="0" t="s">
-        <v>2171</v>
+        <v>2745</v>
       </c>
       <c r="U31" s="0" t="s">
-        <v>2191</v>
+        <v>2765</v>
       </c>
       <c r="V31" s="0"/>
       <c r="W31" s="0"/>
       <c r="X31" s="0" t="s">
-        <v>2226</v>
+        <v>2800</v>
       </c>
       <c r="Y31" s="0" t="s">
-        <v>2274</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="32">
@@ -9250,72 +10974,72 @@
         <v>31</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>1754</v>
+        <v>2328</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>1826</v>
+        <v>2400</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>1867</v>
+        <v>2441</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>1871</v>
+        <v>2445</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>1890</v>
+        <v>2464</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>1906</v>
+        <v>2480</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>1923</v>
+        <v>2497</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>1945</v>
+        <v>2519</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>1964</v>
+        <v>2538</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>1977</v>
+        <v>2551</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>1990</v>
+        <v>2564</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>2010</v>
+        <v>2584</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>2027</v>
+        <v>2601</v>
       </c>
       <c r="O32" s="0" t="s">
-        <v>2047</v>
+        <v>2621</v>
       </c>
       <c r="P32" s="0" t="s">
-        <v>2068</v>
+        <v>2642</v>
       </c>
       <c r="Q32" s="0" t="s">
-        <v>2090</v>
+        <v>2664</v>
       </c>
       <c r="R32" s="0" t="s">
-        <v>2123</v>
+        <v>2697</v>
       </c>
       <c r="S32" s="0" t="s">
-        <v>2153</v>
+        <v>2727</v>
       </c>
       <c r="T32" s="0" t="s">
-        <v>2171</v>
+        <v>2745</v>
       </c>
       <c r="U32" s="0" t="s">
-        <v>2191</v>
+        <v>2765</v>
       </c>
       <c r="V32" s="0"/>
       <c r="W32" s="0"/>
       <c r="X32" s="0" t="s">
-        <v>2226</v>
+        <v>2800</v>
       </c>
       <c r="Y32" s="0" t="s">
-        <v>2274</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="33">
@@ -9323,72 +11047,72 @@
         <v>32</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>1755</v>
+        <v>2329</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>1827</v>
+        <v>2401</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>1867</v>
+        <v>2441</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>1871</v>
+        <v>2445</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>1890</v>
+        <v>2464</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>1906</v>
+        <v>2480</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>1923</v>
+        <v>2497</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>1945</v>
+        <v>2519</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>1964</v>
+        <v>2538</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>1977</v>
+        <v>2551</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>1990</v>
+        <v>2564</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>2010</v>
+        <v>2584</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>2027</v>
+        <v>2601</v>
       </c>
       <c r="O33" s="0" t="s">
-        <v>2047</v>
+        <v>2621</v>
       </c>
       <c r="P33" s="0" t="s">
-        <v>2068</v>
+        <v>2642</v>
       </c>
       <c r="Q33" s="0" t="s">
-        <v>2090</v>
+        <v>2664</v>
       </c>
       <c r="R33" s="0" t="s">
-        <v>2123</v>
+        <v>2697</v>
       </c>
       <c r="S33" s="0" t="s">
-        <v>2154</v>
+        <v>2728</v>
       </c>
       <c r="T33" s="0" t="s">
-        <v>2171</v>
+        <v>2745</v>
       </c>
       <c r="U33" s="0" t="s">
-        <v>2191</v>
+        <v>2765</v>
       </c>
       <c r="V33" s="0"/>
       <c r="W33" s="0"/>
       <c r="X33" s="0" t="s">
-        <v>2227</v>
+        <v>2801</v>
       </c>
       <c r="Y33" s="0" t="s">
-        <v>2275</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="34">
@@ -9396,72 +11120,72 @@
         <v>33</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>1756</v>
+        <v>2330</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>1828</v>
+        <v>2402</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>1867</v>
+        <v>2441</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>1871</v>
+        <v>2445</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>1890</v>
+        <v>2464</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>1906</v>
+        <v>2480</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>1923</v>
+        <v>2497</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>1945</v>
+        <v>2519</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>1964</v>
+        <v>2538</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>1977</v>
+        <v>2551</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>1990</v>
+        <v>2564</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>2010</v>
+        <v>2584</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>2027</v>
+        <v>2601</v>
       </c>
       <c r="O34" s="0" t="s">
-        <v>2047</v>
+        <v>2621</v>
       </c>
       <c r="P34" s="0" t="s">
-        <v>2068</v>
+        <v>2642</v>
       </c>
       <c r="Q34" s="0" t="s">
-        <v>2090</v>
+        <v>2664</v>
       </c>
       <c r="R34" s="0" t="s">
-        <v>2123</v>
+        <v>2697</v>
       </c>
       <c r="S34" s="0" t="s">
-        <v>2154</v>
+        <v>2728</v>
       </c>
       <c r="T34" s="0" t="s">
-        <v>2171</v>
+        <v>2745</v>
       </c>
       <c r="U34" s="0" t="s">
-        <v>2191</v>
+        <v>2765</v>
       </c>
       <c r="V34" s="0"/>
       <c r="W34" s="0"/>
       <c r="X34" s="0" t="s">
-        <v>2227</v>
+        <v>2801</v>
       </c>
       <c r="Y34" s="0" t="s">
-        <v>2275</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="35">
@@ -9469,72 +11193,72 @@
         <v>34</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>1757</v>
+        <v>2331</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>1829</v>
+        <v>2403</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>1867</v>
+        <v>2441</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>1871</v>
+        <v>2445</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>1890</v>
+        <v>2464</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>1906</v>
+        <v>2480</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>1923</v>
+        <v>2497</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>1945</v>
+        <v>2519</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>1964</v>
+        <v>2538</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>1977</v>
+        <v>2551</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>1990</v>
+        <v>2564</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>2010</v>
+        <v>2584</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>2027</v>
+        <v>2601</v>
       </c>
       <c r="O35" s="0" t="s">
-        <v>2047</v>
+        <v>2621</v>
       </c>
       <c r="P35" s="0" t="s">
-        <v>2068</v>
+        <v>2642</v>
       </c>
       <c r="Q35" s="0" t="s">
-        <v>2090</v>
+        <v>2664</v>
       </c>
       <c r="R35" s="0" t="s">
-        <v>2123</v>
+        <v>2697</v>
       </c>
       <c r="S35" s="0" t="s">
-        <v>2154</v>
+        <v>2728</v>
       </c>
       <c r="T35" s="0" t="s">
-        <v>2171</v>
+        <v>2745</v>
       </c>
       <c r="U35" s="0" t="s">
-        <v>2191</v>
+        <v>2765</v>
       </c>
       <c r="V35" s="0"/>
       <c r="W35" s="0"/>
       <c r="X35" s="0" t="s">
-        <v>2227</v>
+        <v>2801</v>
       </c>
       <c r="Y35" s="0" t="s">
-        <v>2275</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="36">
@@ -9542,72 +11266,72 @@
         <v>35</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>1758</v>
+        <v>2332</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>1830</v>
+        <v>2404</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>1867</v>
+        <v>2441</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>1872</v>
+        <v>2446</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>1890</v>
+        <v>2464</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>1907</v>
+        <v>2481</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>1924</v>
+        <v>2498</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>1945</v>
+        <v>2519</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>1964</v>
+        <v>2538</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>1977</v>
+        <v>2551</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>1991</v>
+        <v>2565</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>2011</v>
+        <v>2585</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>2027</v>
+        <v>2601</v>
       </c>
       <c r="O36" s="0" t="s">
-        <v>2048</v>
+        <v>2622</v>
       </c>
       <c r="P36" s="0" t="s">
-        <v>2068</v>
+        <v>2642</v>
       </c>
       <c r="Q36" s="0" t="s">
-        <v>2091</v>
+        <v>2665</v>
       </c>
       <c r="R36" s="0" t="s">
-        <v>2123</v>
+        <v>2697</v>
       </c>
       <c r="S36" s="0" t="s">
-        <v>2154</v>
+        <v>2728</v>
       </c>
       <c r="T36" s="0" t="s">
-        <v>2172</v>
+        <v>2746</v>
       </c>
       <c r="U36" s="0" t="s">
-        <v>2192</v>
+        <v>2766</v>
       </c>
       <c r="V36" s="0"/>
       <c r="W36" s="0"/>
       <c r="X36" s="0" t="s">
-        <v>2228</v>
+        <v>2802</v>
       </c>
       <c r="Y36" s="0" t="s">
-        <v>2276</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="37">
@@ -9615,72 +11339,72 @@
         <v>36</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>1759</v>
+        <v>2333</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>1831</v>
+        <v>2405</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>1867</v>
+        <v>2441</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>1873</v>
+        <v>2447</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>1890</v>
+        <v>2464</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>1908</v>
+        <v>2482</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>1925</v>
+        <v>2499</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>1945</v>
+        <v>2519</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>1964</v>
+        <v>2538</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>1977</v>
+        <v>2551</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>1992</v>
+        <v>2566</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>2012</v>
+        <v>2586</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>2027</v>
+        <v>2601</v>
       </c>
       <c r="O37" s="0" t="s">
-        <v>2049</v>
+        <v>2623</v>
       </c>
       <c r="P37" s="0" t="s">
-        <v>2068</v>
+        <v>2642</v>
       </c>
       <c r="Q37" s="0" t="s">
-        <v>2092</v>
+        <v>2666</v>
       </c>
       <c r="R37" s="0" t="s">
-        <v>2123</v>
+        <v>2697</v>
       </c>
       <c r="S37" s="0" t="s">
-        <v>2154</v>
+        <v>2728</v>
       </c>
       <c r="T37" s="0" t="s">
-        <v>2173</v>
+        <v>2747</v>
       </c>
       <c r="U37" s="0" t="s">
-        <v>2192</v>
+        <v>2766</v>
       </c>
       <c r="V37" s="0"/>
       <c r="W37" s="0"/>
       <c r="X37" s="0" t="s">
-        <v>2229</v>
+        <v>2803</v>
       </c>
       <c r="Y37" s="0" t="s">
-        <v>2277</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="38">
@@ -9688,72 +11412,72 @@
         <v>37</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>1760</v>
+        <v>2334</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>1832</v>
+        <v>2406</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>1867</v>
+        <v>2441</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>1873</v>
+        <v>2447</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>1890</v>
+        <v>2464</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>1908</v>
+        <v>2482</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>1925</v>
+        <v>2499</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>1945</v>
+        <v>2519</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>1964</v>
+        <v>2538</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>1977</v>
+        <v>2551</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>1992</v>
+        <v>2566</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>2012</v>
+        <v>2586</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>2027</v>
+        <v>2601</v>
       </c>
       <c r="O38" s="0" t="s">
-        <v>2049</v>
+        <v>2623</v>
       </c>
       <c r="P38" s="0" t="s">
-        <v>2069</v>
+        <v>2643</v>
       </c>
       <c r="Q38" s="0" t="s">
-        <v>2092</v>
+        <v>2666</v>
       </c>
       <c r="R38" s="0" t="s">
-        <v>2123</v>
+        <v>2697</v>
       </c>
       <c r="S38" s="0" t="s">
-        <v>2154</v>
+        <v>2728</v>
       </c>
       <c r="T38" s="0" t="s">
-        <v>2173</v>
+        <v>2747</v>
       </c>
       <c r="U38" s="0" t="s">
-        <v>2193</v>
+        <v>2767</v>
       </c>
       <c r="V38" s="0"/>
       <c r="W38" s="0"/>
       <c r="X38" s="0" t="s">
-        <v>2229</v>
+        <v>2803</v>
       </c>
       <c r="Y38" s="0" t="s">
-        <v>2277</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="39">
@@ -9761,72 +11485,72 @@
         <v>38</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>1761</v>
+        <v>2335</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>1833</v>
+        <v>2407</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>1867</v>
+        <v>2441</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>1873</v>
+        <v>2447</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>1890</v>
+        <v>2464</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>1908</v>
+        <v>2482</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>1925</v>
+        <v>2499</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>1945</v>
+        <v>2519</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>1964</v>
+        <v>2538</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>1977</v>
+        <v>2551</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>1992</v>
+        <v>2566</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>2012</v>
+        <v>2586</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>2028</v>
+        <v>2602</v>
       </c>
       <c r="O39" s="0" t="s">
-        <v>2049</v>
+        <v>2623</v>
       </c>
       <c r="P39" s="0" t="s">
-        <v>2070</v>
+        <v>2644</v>
       </c>
       <c r="Q39" s="0" t="s">
-        <v>2092</v>
+        <v>2666</v>
       </c>
       <c r="R39" s="0" t="s">
-        <v>2124</v>
+        <v>2698</v>
       </c>
       <c r="S39" s="0" t="s">
-        <v>2154</v>
+        <v>2728</v>
       </c>
       <c r="T39" s="0" t="s">
-        <v>2173</v>
+        <v>2747</v>
       </c>
       <c r="U39" s="0" t="s">
-        <v>2193</v>
+        <v>2767</v>
       </c>
       <c r="V39" s="0"/>
       <c r="W39" s="0"/>
       <c r="X39" s="0" t="s">
-        <v>2230</v>
+        <v>2804</v>
       </c>
       <c r="Y39" s="0" t="s">
-        <v>2278</v>
+        <v>2852</v>
       </c>
     </row>
     <row r="40">
@@ -9834,72 +11558,72 @@
         <v>39</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>1762</v>
+        <v>2336</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>1834</v>
+        <v>2408</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>1867</v>
+        <v>2441</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>1873</v>
+        <v>2447</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>1890</v>
+        <v>2464</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>1908</v>
+        <v>2482</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>1925</v>
+        <v>2499</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>1945</v>
+        <v>2519</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>1964</v>
+        <v>2538</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>1977</v>
+        <v>2551</v>
       </c>
       <c r="L40" s="0" t="s">
-        <v>1992</v>
+        <v>2566</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>2012</v>
+        <v>2586</v>
       </c>
       <c r="N40" s="0" t="s">
-        <v>2029</v>
+        <v>2603</v>
       </c>
       <c r="O40" s="0" t="s">
-        <v>2049</v>
+        <v>2623</v>
       </c>
       <c r="P40" s="0" t="s">
-        <v>2070</v>
+        <v>2644</v>
       </c>
       <c r="Q40" s="0" t="s">
-        <v>2092</v>
+        <v>2666</v>
       </c>
       <c r="R40" s="0" t="s">
-        <v>2125</v>
+        <v>2699</v>
       </c>
       <c r="S40" s="0" t="s">
-        <v>2154</v>
+        <v>2728</v>
       </c>
       <c r="T40" s="0" t="s">
-        <v>2173</v>
+        <v>2747</v>
       </c>
       <c r="U40" s="0" t="s">
-        <v>2193</v>
+        <v>2767</v>
       </c>
       <c r="V40" s="0"/>
       <c r="W40" s="0"/>
       <c r="X40" s="0" t="s">
-        <v>2231</v>
+        <v>2805</v>
       </c>
       <c r="Y40" s="0" t="s">
-        <v>2279</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="41">
@@ -9907,72 +11631,72 @@
         <v>40</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>1763</v>
+        <v>2337</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>1835</v>
+        <v>2409</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>1867</v>
+        <v>2441</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>1873</v>
+        <v>2447</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>1890</v>
+        <v>2464</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>1908</v>
+        <v>2482</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>1925</v>
+        <v>2499</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>1946</v>
+        <v>2520</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>1964</v>
+        <v>2538</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>1977</v>
+        <v>2551</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>1992</v>
+        <v>2566</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>2012</v>
+        <v>2586</v>
       </c>
       <c r="N41" s="0" t="s">
-        <v>2029</v>
+        <v>2603</v>
       </c>
       <c r="O41" s="0" t="s">
-        <v>2049</v>
+        <v>2623</v>
       </c>
       <c r="P41" s="0" t="s">
-        <v>2070</v>
+        <v>2644</v>
       </c>
       <c r="Q41" s="0" t="s">
-        <v>2092</v>
+        <v>2666</v>
       </c>
       <c r="R41" s="0" t="s">
-        <v>2125</v>
+        <v>2699</v>
       </c>
       <c r="S41" s="0" t="s">
-        <v>2154</v>
+        <v>2728</v>
       </c>
       <c r="T41" s="0" t="s">
-        <v>2173</v>
+        <v>2747</v>
       </c>
       <c r="U41" s="0" t="s">
-        <v>2193</v>
+        <v>2767</v>
       </c>
       <c r="V41" s="0"/>
       <c r="W41" s="0"/>
       <c r="X41" s="0" t="s">
-        <v>2232</v>
+        <v>2806</v>
       </c>
       <c r="Y41" s="0" t="s">
-        <v>2280</v>
+        <v>2854</v>
       </c>
     </row>
     <row r="42">
@@ -9980,72 +11704,72 @@
         <v>41</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>1764</v>
+        <v>2338</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>1836</v>
+        <v>2410</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>1867</v>
+        <v>2441</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>1873</v>
+        <v>2447</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>1890</v>
+        <v>2464</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>1908</v>
+        <v>2482</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>1925</v>
+        <v>2499</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>1947</v>
+        <v>2521</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>1964</v>
+        <v>2538</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>1977</v>
+        <v>2551</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>1992</v>
+        <v>2566</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>2012</v>
+        <v>2586</v>
       </c>
       <c r="N42" s="0" t="s">
-        <v>2029</v>
+        <v>2603</v>
       </c>
       <c r="O42" s="0" t="s">
-        <v>2049</v>
+        <v>2623</v>
       </c>
       <c r="P42" s="0" t="s">
-        <v>2070</v>
+        <v>2644</v>
       </c>
       <c r="Q42" s="0" t="s">
-        <v>2092</v>
+        <v>2666</v>
       </c>
       <c r="R42" s="0" t="s">
-        <v>2125</v>
+        <v>2699</v>
       </c>
       <c r="S42" s="0" t="s">
-        <v>2154</v>
+        <v>2728</v>
       </c>
       <c r="T42" s="0" t="s">
-        <v>2173</v>
+        <v>2747</v>
       </c>
       <c r="U42" s="0" t="s">
-        <v>2193</v>
+        <v>2767</v>
       </c>
       <c r="V42" s="0"/>
       <c r="W42" s="0"/>
       <c r="X42" s="0" t="s">
-        <v>2233</v>
+        <v>2807</v>
       </c>
       <c r="Y42" s="0" t="s">
-        <v>2281</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="43">
@@ -10053,72 +11777,72 @@
         <v>42</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>1765</v>
+        <v>2339</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>1837</v>
+        <v>2411</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>1867</v>
+        <v>2441</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>1873</v>
+        <v>2447</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>1890</v>
+        <v>2464</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>1908</v>
+        <v>2482</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>1925</v>
+        <v>2499</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>1947</v>
+        <v>2521</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>1964</v>
+        <v>2538</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>1977</v>
+        <v>2551</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>1992</v>
+        <v>2566</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>2012</v>
+        <v>2586</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>2029</v>
+        <v>2603</v>
       </c>
       <c r="O43" s="0" t="s">
-        <v>2049</v>
+        <v>2623</v>
       </c>
       <c r="P43" s="0" t="s">
-        <v>2070</v>
+        <v>2644</v>
       </c>
       <c r="Q43" s="0" t="s">
-        <v>2093</v>
+        <v>2667</v>
       </c>
       <c r="R43" s="0" t="s">
-        <v>2125</v>
+        <v>2699</v>
       </c>
       <c r="S43" s="0" t="s">
-        <v>2154</v>
+        <v>2728</v>
       </c>
       <c r="T43" s="0" t="s">
-        <v>2173</v>
+        <v>2747</v>
       </c>
       <c r="U43" s="0" t="s">
-        <v>2193</v>
+        <v>2767</v>
       </c>
       <c r="V43" s="0"/>
       <c r="W43" s="0"/>
       <c r="X43" s="0" t="s">
-        <v>2233</v>
+        <v>2807</v>
       </c>
       <c r="Y43" s="0" t="s">
-        <v>2281</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="44">
@@ -10126,72 +11850,72 @@
         <v>43</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>1766</v>
+        <v>2340</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>1838</v>
+        <v>2412</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>1867</v>
+        <v>2441</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>1873</v>
+        <v>2447</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>1890</v>
+        <v>2464</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>1908</v>
+        <v>2482</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>1925</v>
+        <v>2499</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>1947</v>
+        <v>2521</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>1964</v>
+        <v>2538</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>1977</v>
+        <v>2551</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>1992</v>
+        <v>2566</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>2012</v>
+        <v>2586</v>
       </c>
       <c r="N44" s="0" t="s">
-        <v>2029</v>
+        <v>2603</v>
       </c>
       <c r="O44" s="0" t="s">
-        <v>2049</v>
+        <v>2623</v>
       </c>
       <c r="P44" s="0" t="s">
-        <v>2070</v>
+        <v>2644</v>
       </c>
       <c r="Q44" s="0" t="s">
-        <v>2094</v>
+        <v>2668</v>
       </c>
       <c r="R44" s="0" t="s">
-        <v>2126</v>
+        <v>2700</v>
       </c>
       <c r="S44" s="0" t="s">
-        <v>2154</v>
+        <v>2728</v>
       </c>
       <c r="T44" s="0" t="s">
-        <v>2173</v>
+        <v>2747</v>
       </c>
       <c r="U44" s="0" t="s">
-        <v>2193</v>
+        <v>2767</v>
       </c>
       <c r="V44" s="0"/>
       <c r="W44" s="0"/>
       <c r="X44" s="0" t="s">
-        <v>2234</v>
+        <v>2808</v>
       </c>
       <c r="Y44" s="0" t="s">
-        <v>2282</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="45">
@@ -10199,72 +11923,72 @@
         <v>44</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>1767</v>
+        <v>2341</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>1839</v>
+        <v>2413</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>1867</v>
+        <v>2441</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>1873</v>
+        <v>2447</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>1890</v>
+        <v>2464</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>1908</v>
+        <v>2482</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>1925</v>
+        <v>2499</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>1947</v>
+        <v>2521</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>1964</v>
+        <v>2538</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>1977</v>
+        <v>2551</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>1992</v>
+        <v>2566</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>2012</v>
+        <v>2586</v>
       </c>
       <c r="N45" s="0" t="s">
-        <v>2029</v>
+        <v>2603</v>
       </c>
       <c r="O45" s="0" t="s">
-        <v>2049</v>
+        <v>2623</v>
       </c>
       <c r="P45" s="0" t="s">
-        <v>2070</v>
+        <v>2644</v>
       </c>
       <c r="Q45" s="0" t="s">
-        <v>2094</v>
+        <v>2668</v>
       </c>
       <c r="R45" s="0" t="s">
-        <v>2127</v>
+        <v>2701</v>
       </c>
       <c r="S45" s="0" t="s">
-        <v>2154</v>
+        <v>2728</v>
       </c>
       <c r="T45" s="0" t="s">
-        <v>2173</v>
+        <v>2747</v>
       </c>
       <c r="U45" s="0" t="s">
-        <v>2193</v>
+        <v>2767</v>
       </c>
       <c r="V45" s="0"/>
       <c r="W45" s="0"/>
       <c r="X45" s="0" t="s">
-        <v>2235</v>
+        <v>2809</v>
       </c>
       <c r="Y45" s="0" t="s">
-        <v>2283</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="46">
@@ -10272,72 +11996,72 @@
         <v>45</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>1768</v>
+        <v>2342</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>1840</v>
+        <v>2414</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>1867</v>
+        <v>2441</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>1873</v>
+        <v>2447</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>1890</v>
+        <v>2464</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>1908</v>
+        <v>2482</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>1926</v>
+        <v>2500</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>1947</v>
+        <v>2521</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>1964</v>
+        <v>2538</v>
       </c>
       <c r="K46" s="0" t="s">
-        <v>1977</v>
+        <v>2551</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>1992</v>
+        <v>2566</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>2012</v>
+        <v>2586</v>
       </c>
       <c r="N46" s="0" t="s">
-        <v>2029</v>
+        <v>2603</v>
       </c>
       <c r="O46" s="0" t="s">
-        <v>2049</v>
+        <v>2623</v>
       </c>
       <c r="P46" s="0" t="s">
-        <v>2070</v>
+        <v>2644</v>
       </c>
       <c r="Q46" s="0" t="s">
-        <v>2094</v>
+        <v>2668</v>
       </c>
       <c r="R46" s="0" t="s">
-        <v>2127</v>
+        <v>2701</v>
       </c>
       <c r="S46" s="0" t="s">
-        <v>2154</v>
+        <v>2728</v>
       </c>
       <c r="T46" s="0" t="s">
-        <v>2173</v>
+        <v>2747</v>
       </c>
       <c r="U46" s="0" t="s">
-        <v>2193</v>
+        <v>2767</v>
       </c>
       <c r="V46" s="0"/>
       <c r="W46" s="0"/>
       <c r="X46" s="0" t="s">
-        <v>2235</v>
+        <v>2809</v>
       </c>
       <c r="Y46" s="0" t="s">
-        <v>2283</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="47">
@@ -10345,72 +12069,72 @@
         <v>46</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>1769</v>
+        <v>2343</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>1841</v>
+        <v>2415</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>1867</v>
+        <v>2441</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>1873</v>
+        <v>2447</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>1890</v>
+        <v>2464</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>1908</v>
+        <v>2482</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>1927</v>
+        <v>2501</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>1947</v>
+        <v>2521</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>1964</v>
+        <v>2538</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>1977</v>
+        <v>2551</v>
       </c>
       <c r="L47" s="0" t="s">
-        <v>1992</v>
+        <v>2566</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>2012</v>
+        <v>2586</v>
       </c>
       <c r="N47" s="0" t="s">
-        <v>2029</v>
+        <v>2603</v>
       </c>
       <c r="O47" s="0" t="s">
-        <v>2049</v>
+        <v>2623</v>
       </c>
       <c r="P47" s="0" t="s">
-        <v>2070</v>
+        <v>2644</v>
       </c>
       <c r="Q47" s="0" t="s">
-        <v>2094</v>
+        <v>2668</v>
       </c>
       <c r="R47" s="0" t="s">
-        <v>2127</v>
+        <v>2701</v>
       </c>
       <c r="S47" s="0" t="s">
-        <v>2154</v>
+        <v>2728</v>
       </c>
       <c r="T47" s="0" t="s">
-        <v>2173</v>
+        <v>2747</v>
       </c>
       <c r="U47" s="0" t="s">
-        <v>2193</v>
+        <v>2767</v>
       </c>
       <c r="V47" s="0"/>
       <c r="W47" s="0"/>
       <c r="X47" s="0" t="s">
-        <v>2235</v>
+        <v>2809</v>
       </c>
       <c r="Y47" s="0" t="s">
-        <v>2283</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="48">
@@ -10418,72 +12142,72 @@
         <v>47</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>1770</v>
+        <v>2344</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>1842</v>
+        <v>2416</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>1867</v>
+        <v>2441</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>1873</v>
+        <v>2447</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>1890</v>
+        <v>2464</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>1908</v>
+        <v>2482</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>1927</v>
+        <v>2501</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>1947</v>
+        <v>2521</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>1964</v>
+        <v>2538</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>1977</v>
+        <v>2551</v>
       </c>
       <c r="L48" s="0" t="s">
-        <v>1992</v>
+        <v>2566</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>2012</v>
+        <v>2586</v>
       </c>
       <c r="N48" s="0" t="s">
-        <v>2029</v>
+        <v>2603</v>
       </c>
       <c r="O48" s="0" t="s">
-        <v>2049</v>
+        <v>2623</v>
       </c>
       <c r="P48" s="0" t="s">
-        <v>2070</v>
+        <v>2644</v>
       </c>
       <c r="Q48" s="0" t="s">
-        <v>2094</v>
+        <v>2668</v>
       </c>
       <c r="R48" s="0" t="s">
-        <v>2127</v>
+        <v>2701</v>
       </c>
       <c r="S48" s="0" t="s">
-        <v>2154</v>
+        <v>2728</v>
       </c>
       <c r="T48" s="0" t="s">
-        <v>2173</v>
+        <v>2747</v>
       </c>
       <c r="U48" s="0" t="s">
-        <v>2193</v>
+        <v>2767</v>
       </c>
       <c r="V48" s="0"/>
       <c r="W48" s="0"/>
       <c r="X48" s="0" t="s">
-        <v>2235</v>
+        <v>2809</v>
       </c>
       <c r="Y48" s="0" t="s">
-        <v>2283</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="49">
@@ -10491,72 +12215,72 @@
         <v>48</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>1771</v>
+        <v>2345</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>1843</v>
+        <v>2417</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>1867</v>
+        <v>2441</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>1874</v>
+        <v>2448</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>1890</v>
+        <v>2464</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>1908</v>
+        <v>2482</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>1927</v>
+        <v>2501</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>1947</v>
+        <v>2521</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>1964</v>
+        <v>2538</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>1977</v>
+        <v>2551</v>
       </c>
       <c r="L49" s="0" t="s">
-        <v>1992</v>
+        <v>2566</v>
       </c>
       <c r="M49" s="0" t="s">
-        <v>2012</v>
+        <v>2586</v>
       </c>
       <c r="N49" s="0" t="s">
-        <v>2029</v>
+        <v>2603</v>
       </c>
       <c r="O49" s="0" t="s">
-        <v>2049</v>
+        <v>2623</v>
       </c>
       <c r="P49" s="0" t="s">
-        <v>2070</v>
+        <v>2644</v>
       </c>
       <c r="Q49" s="0" t="s">
-        <v>2094</v>
+        <v>2668</v>
       </c>
       <c r="R49" s="0" t="s">
-        <v>2127</v>
+        <v>2701</v>
       </c>
       <c r="S49" s="0" t="s">
-        <v>2154</v>
+        <v>2728</v>
       </c>
       <c r="T49" s="0" t="s">
-        <v>2173</v>
+        <v>2747</v>
       </c>
       <c r="U49" s="0" t="s">
-        <v>2193</v>
+        <v>2767</v>
       </c>
       <c r="V49" s="0"/>
       <c r="W49" s="0"/>
       <c r="X49" s="0" t="s">
-        <v>2235</v>
+        <v>2809</v>
       </c>
       <c r="Y49" s="0" t="s">
-        <v>2283</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="50">
@@ -10564,72 +12288,72 @@
         <v>49</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>1772</v>
+        <v>2346</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>1844</v>
+        <v>2418</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>1867</v>
+        <v>2441</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>1875</v>
+        <v>2449</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>1890</v>
+        <v>2464</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>1908</v>
+        <v>2482</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>1927</v>
+        <v>2501</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>1947</v>
+        <v>2521</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>1964</v>
+        <v>2538</v>
       </c>
       <c r="K50" s="0" t="s">
-        <v>1977</v>
+        <v>2551</v>
       </c>
       <c r="L50" s="0" t="s">
-        <v>1992</v>
+        <v>2566</v>
       </c>
       <c r="M50" s="0" t="s">
-        <v>2012</v>
+        <v>2586</v>
       </c>
       <c r="N50" s="0" t="s">
-        <v>2029</v>
+        <v>2603</v>
       </c>
       <c r="O50" s="0" t="s">
-        <v>2049</v>
+        <v>2623</v>
       </c>
       <c r="P50" s="0" t="s">
-        <v>2070</v>
+        <v>2644</v>
       </c>
       <c r="Q50" s="0" t="s">
-        <v>2095</v>
+        <v>2669</v>
       </c>
       <c r="R50" s="0" t="s">
-        <v>2127</v>
+        <v>2701</v>
       </c>
       <c r="S50" s="0" t="s">
-        <v>2154</v>
+        <v>2728</v>
       </c>
       <c r="T50" s="0" t="s">
-        <v>2173</v>
+        <v>2747</v>
       </c>
       <c r="U50" s="0" t="s">
-        <v>2193</v>
+        <v>2767</v>
       </c>
       <c r="V50" s="0"/>
       <c r="W50" s="0"/>
       <c r="X50" s="0" t="s">
-        <v>2235</v>
+        <v>2809</v>
       </c>
       <c r="Y50" s="0" t="s">
-        <v>2283</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="51">
@@ -10637,72 +12361,72 @@
         <v>50</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>1773</v>
+        <v>2347</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>1845</v>
+        <v>2419</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>1867</v>
+        <v>2441</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>1875</v>
+        <v>2449</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>1890</v>
+        <v>2464</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>1908</v>
+        <v>2482</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>1927</v>
+        <v>2501</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>1947</v>
+        <v>2521</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>1964</v>
+        <v>2538</v>
       </c>
       <c r="K51" s="0" t="s">
-        <v>1977</v>
+        <v>2551</v>
       </c>
       <c r="L51" s="0" t="s">
-        <v>1992</v>
+        <v>2566</v>
       </c>
       <c r="M51" s="0" t="s">
-        <v>2012</v>
+        <v>2586</v>
       </c>
       <c r="N51" s="0" t="s">
-        <v>2029</v>
+        <v>2603</v>
       </c>
       <c r="O51" s="0" t="s">
-        <v>2049</v>
+        <v>2623</v>
       </c>
       <c r="P51" s="0" t="s">
-        <v>2070</v>
+        <v>2644</v>
       </c>
       <c r="Q51" s="0" t="s">
-        <v>2096</v>
+        <v>2670</v>
       </c>
       <c r="R51" s="0" t="s">
-        <v>2127</v>
+        <v>2701</v>
       </c>
       <c r="S51" s="0" t="s">
-        <v>2154</v>
+        <v>2728</v>
       </c>
       <c r="T51" s="0" t="s">
-        <v>2173</v>
+        <v>2747</v>
       </c>
       <c r="U51" s="0" t="s">
-        <v>2193</v>
+        <v>2767</v>
       </c>
       <c r="V51" s="0"/>
       <c r="W51" s="0"/>
       <c r="X51" s="0" t="s">
-        <v>2235</v>
+        <v>2809</v>
       </c>
       <c r="Y51" s="0" t="s">
-        <v>2283</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="52">
@@ -10710,72 +12434,72 @@
         <v>51</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>1774</v>
+        <v>2348</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>1846</v>
+        <v>2420</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>1867</v>
+        <v>2441</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>1875</v>
+        <v>2449</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>1890</v>
+        <v>2464</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>1908</v>
+        <v>2482</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>1927</v>
+        <v>2501</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>1947</v>
+        <v>2521</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>1964</v>
+        <v>2538</v>
       </c>
       <c r="K52" s="0" t="s">
-        <v>1977</v>
+        <v>2551</v>
       </c>
       <c r="L52" s="0" t="s">
-        <v>1992</v>
+        <v>2566</v>
       </c>
       <c r="M52" s="0" t="s">
-        <v>2012</v>
+        <v>2586</v>
       </c>
       <c r="N52" s="0" t="s">
-        <v>2029</v>
+        <v>2603</v>
       </c>
       <c r="O52" s="0" t="s">
-        <v>2049</v>
+        <v>2623</v>
       </c>
       <c r="P52" s="0" t="s">
-        <v>2070</v>
+        <v>2644</v>
       </c>
       <c r="Q52" s="0" t="s">
-        <v>2096</v>
+        <v>2670</v>
       </c>
       <c r="R52" s="0" t="s">
-        <v>2127</v>
+        <v>2701</v>
       </c>
       <c r="S52" s="0" t="s">
-        <v>2154</v>
+        <v>2728</v>
       </c>
       <c r="T52" s="0" t="s">
-        <v>2173</v>
+        <v>2747</v>
       </c>
       <c r="U52" s="0" t="s">
-        <v>2194</v>
+        <v>2768</v>
       </c>
       <c r="V52" s="0"/>
       <c r="W52" s="0"/>
       <c r="X52" s="0" t="s">
-        <v>2236</v>
+        <v>2810</v>
       </c>
       <c r="Y52" s="0" t="s">
-        <v>2284</v>
+        <v>2858</v>
       </c>
     </row>
     <row r="53">
@@ -10783,72 +12507,72 @@
         <v>52</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>1775</v>
+        <v>2349</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>1847</v>
+        <v>2421</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>1867</v>
+        <v>2441</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>1875</v>
+        <v>2449</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>1890</v>
+        <v>2464</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>1908</v>
+        <v>2482</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>1927</v>
+        <v>2501</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>1947</v>
+        <v>2521</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>1964</v>
+        <v>2538</v>
       </c>
       <c r="K53" s="0" t="s">
-        <v>1977</v>
+        <v>2551</v>
       </c>
       <c r="L53" s="0" t="s">
-        <v>1992</v>
+        <v>2566</v>
       </c>
       <c r="M53" s="0" t="s">
-        <v>2012</v>
+        <v>2586</v>
       </c>
       <c r="N53" s="0" t="s">
-        <v>2029</v>
+        <v>2603</v>
       </c>
       <c r="O53" s="0" t="s">
-        <v>2049</v>
+        <v>2623</v>
       </c>
       <c r="P53" s="0" t="s">
-        <v>2070</v>
+        <v>2644</v>
       </c>
       <c r="Q53" s="0" t="s">
-        <v>2096</v>
+        <v>2670</v>
       </c>
       <c r="R53" s="0" t="s">
-        <v>2127</v>
+        <v>2701</v>
       </c>
       <c r="S53" s="0" t="s">
-        <v>2154</v>
+        <v>2728</v>
       </c>
       <c r="T53" s="0" t="s">
-        <v>2173</v>
+        <v>2747</v>
       </c>
       <c r="U53" s="0" t="s">
-        <v>2195</v>
+        <v>2769</v>
       </c>
       <c r="V53" s="0"/>
       <c r="W53" s="0"/>
       <c r="X53" s="0" t="s">
-        <v>2237</v>
+        <v>2811</v>
       </c>
       <c r="Y53" s="0" t="s">
-        <v>2285</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="54">
@@ -10856,72 +12580,72 @@
         <v>53</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>1776</v>
+        <v>2350</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>1848</v>
+        <v>2422</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>1867</v>
+        <v>2441</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>1876</v>
+        <v>2450</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>1890</v>
+        <v>2464</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>1908</v>
+        <v>2482</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>1927</v>
+        <v>2501</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>1947</v>
+        <v>2521</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>1964</v>
+        <v>2538</v>
       </c>
       <c r="K54" s="0" t="s">
-        <v>1977</v>
+        <v>2551</v>
       </c>
       <c r="L54" s="0" t="s">
-        <v>1992</v>
+        <v>2566</v>
       </c>
       <c r="M54" s="0" t="s">
-        <v>2012</v>
+        <v>2586</v>
       </c>
       <c r="N54" s="0" t="s">
-        <v>2029</v>
+        <v>2603</v>
       </c>
       <c r="O54" s="0" t="s">
-        <v>2049</v>
+        <v>2623</v>
       </c>
       <c r="P54" s="0" t="s">
-        <v>2070</v>
+        <v>2644</v>
       </c>
       <c r="Q54" s="0" t="s">
-        <v>2097</v>
+        <v>2671</v>
       </c>
       <c r="R54" s="0" t="s">
-        <v>2127</v>
+        <v>2701</v>
       </c>
       <c r="S54" s="0" t="s">
-        <v>2154</v>
+        <v>2728</v>
       </c>
       <c r="T54" s="0" t="s">
-        <v>2173</v>
+        <v>2747</v>
       </c>
       <c r="U54" s="0" t="s">
-        <v>2195</v>
+        <v>2769</v>
       </c>
       <c r="V54" s="0"/>
       <c r="W54" s="0"/>
       <c r="X54" s="0" t="s">
-        <v>2238</v>
+        <v>2812</v>
       </c>
       <c r="Y54" s="0" t="s">
-        <v>2286</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="55">
@@ -10929,72 +12653,72 @@
         <v>54</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>1777</v>
+        <v>2351</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>1849</v>
+        <v>2423</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>1867</v>
+        <v>2441</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>1877</v>
+        <v>2451</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>1890</v>
+        <v>2464</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>1908</v>
+        <v>2482</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>1927</v>
+        <v>2501</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>1947</v>
+        <v>2521</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>1964</v>
+        <v>2538</v>
       </c>
       <c r="K55" s="0" t="s">
-        <v>1977</v>
+        <v>2551</v>
       </c>
       <c r="L55" s="0" t="s">
-        <v>1992</v>
+        <v>2566</v>
       </c>
       <c r="M55" s="0" t="s">
-        <v>2012</v>
+        <v>2586</v>
       </c>
       <c r="N55" s="0" t="s">
-        <v>2029</v>
+        <v>2603</v>
       </c>
       <c r="O55" s="0" t="s">
-        <v>2049</v>
+        <v>2623</v>
       </c>
       <c r="P55" s="0" t="s">
-        <v>2070</v>
+        <v>2644</v>
       </c>
       <c r="Q55" s="0" t="s">
-        <v>2098</v>
+        <v>2672</v>
       </c>
       <c r="R55" s="0" t="s">
-        <v>2127</v>
+        <v>2701</v>
       </c>
       <c r="S55" s="0" t="s">
-        <v>2154</v>
+        <v>2728</v>
       </c>
       <c r="T55" s="0" t="s">
-        <v>2173</v>
+        <v>2747</v>
       </c>
       <c r="U55" s="0" t="s">
-        <v>2195</v>
+        <v>2769</v>
       </c>
       <c r="V55" s="0"/>
       <c r="W55" s="0"/>
       <c r="X55" s="0" t="s">
-        <v>2239</v>
+        <v>2813</v>
       </c>
       <c r="Y55" s="0" t="s">
-        <v>2287</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="56">
@@ -11002,72 +12726,72 @@
         <v>55</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>1778</v>
+        <v>2352</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>1850</v>
+        <v>2424</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>1867</v>
+        <v>2441</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>1877</v>
+        <v>2451</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>1890</v>
+        <v>2464</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>1908</v>
+        <v>2482</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>1927</v>
+        <v>2501</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>1947</v>
+        <v>2521</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>1964</v>
+        <v>2538</v>
       </c>
       <c r="K56" s="0" t="s">
-        <v>1977</v>
+        <v>2551</v>
       </c>
       <c r="L56" s="0" t="s">
-        <v>1992</v>
+        <v>2566</v>
       </c>
       <c r="M56" s="0" t="s">
-        <v>2012</v>
+        <v>2586</v>
       </c>
       <c r="N56" s="0" t="s">
-        <v>2029</v>
+        <v>2603</v>
       </c>
       <c r="O56" s="0" t="s">
-        <v>2049</v>
+        <v>2623</v>
       </c>
       <c r="P56" s="0" t="s">
-        <v>2070</v>
+        <v>2644</v>
       </c>
       <c r="Q56" s="0" t="s">
-        <v>2099</v>
+        <v>2673</v>
       </c>
       <c r="R56" s="0" t="s">
-        <v>2127</v>
+        <v>2701</v>
       </c>
       <c r="S56" s="0" t="s">
-        <v>2154</v>
+        <v>2728</v>
       </c>
       <c r="T56" s="0" t="s">
-        <v>2173</v>
+        <v>2747</v>
       </c>
       <c r="U56" s="0" t="s">
-        <v>2196</v>
+        <v>2770</v>
       </c>
       <c r="V56" s="0"/>
       <c r="W56" s="0"/>
       <c r="X56" s="0" t="s">
-        <v>2240</v>
+        <v>2814</v>
       </c>
       <c r="Y56" s="0" t="s">
-        <v>2288</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="57">
@@ -11075,72 +12799,72 @@
         <v>56</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>1779</v>
+        <v>2353</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>1851</v>
+        <v>2425</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>1867</v>
+        <v>2441</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>1877</v>
+        <v>2451</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>1890</v>
+        <v>2464</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>1908</v>
+        <v>2482</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>1927</v>
+        <v>2501</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>1947</v>
+        <v>2521</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>1964</v>
+        <v>2538</v>
       </c>
       <c r="K57" s="0" t="s">
-        <v>1977</v>
+        <v>2551</v>
       </c>
       <c r="L57" s="0" t="s">
-        <v>1992</v>
+        <v>2566</v>
       </c>
       <c r="M57" s="0" t="s">
-        <v>2012</v>
+        <v>2586</v>
       </c>
       <c r="N57" s="0" t="s">
-        <v>2029</v>
+        <v>2603</v>
       </c>
       <c r="O57" s="0" t="s">
-        <v>2049</v>
+        <v>2623</v>
       </c>
       <c r="P57" s="0" t="s">
-        <v>2070</v>
+        <v>2644</v>
       </c>
       <c r="Q57" s="0" t="s">
-        <v>2100</v>
+        <v>2674</v>
       </c>
       <c r="R57" s="0" t="s">
-        <v>2127</v>
+        <v>2701</v>
       </c>
       <c r="S57" s="0" t="s">
-        <v>2154</v>
+        <v>2728</v>
       </c>
       <c r="T57" s="0" t="s">
-        <v>2173</v>
+        <v>2747</v>
       </c>
       <c r="U57" s="0" t="s">
-        <v>2197</v>
+        <v>2771</v>
       </c>
       <c r="V57" s="0"/>
       <c r="W57" s="0"/>
       <c r="X57" s="0" t="s">
-        <v>2241</v>
+        <v>2815</v>
       </c>
       <c r="Y57" s="0" t="s">
-        <v>2289</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="58">
@@ -11148,72 +12872,72 @@
         <v>57</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>1780</v>
+        <v>2354</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>1852</v>
+        <v>2426</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>1867</v>
+        <v>2441</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>1877</v>
+        <v>2451</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>1890</v>
+        <v>2464</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>1908</v>
+        <v>2482</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>1927</v>
+        <v>2501</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>1947</v>
+        <v>2521</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>1964</v>
+        <v>2538</v>
       </c>
       <c r="K58" s="0" t="s">
-        <v>1977</v>
+        <v>2551</v>
       </c>
       <c r="L58" s="0" t="s">
-        <v>1992</v>
+        <v>2566</v>
       </c>
       <c r="M58" s="0" t="s">
-        <v>2012</v>
+        <v>2586</v>
       </c>
       <c r="N58" s="0" t="s">
-        <v>2029</v>
+        <v>2603</v>
       </c>
       <c r="O58" s="0" t="s">
-        <v>2049</v>
+        <v>2623</v>
       </c>
       <c r="P58" s="0" t="s">
-        <v>2070</v>
+        <v>2644</v>
       </c>
       <c r="Q58" s="0" t="s">
-        <v>2101</v>
+        <v>2675</v>
       </c>
       <c r="R58" s="0" t="s">
-        <v>2127</v>
+        <v>2701</v>
       </c>
       <c r="S58" s="0" t="s">
-        <v>2154</v>
+        <v>2728</v>
       </c>
       <c r="T58" s="0" t="s">
-        <v>2173</v>
+        <v>2747</v>
       </c>
       <c r="U58" s="0" t="s">
-        <v>2197</v>
+        <v>2771</v>
       </c>
       <c r="V58" s="0"/>
       <c r="W58" s="0"/>
       <c r="X58" s="0" t="s">
-        <v>2242</v>
+        <v>2816</v>
       </c>
       <c r="Y58" s="0" t="s">
-        <v>2290</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="59">
@@ -11221,72 +12945,72 @@
         <v>58</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>1781</v>
+        <v>2355</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>1853</v>
+        <v>2427</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>1867</v>
+        <v>2441</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>1877</v>
+        <v>2451</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>1890</v>
+        <v>2464</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>1908</v>
+        <v>2482</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>1927</v>
+        <v>2501</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>1947</v>
+        <v>2521</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>1964</v>
+        <v>2538</v>
       </c>
       <c r="K59" s="0" t="s">
-        <v>1977</v>
+        <v>2551</v>
       </c>
       <c r="L59" s="0" t="s">
-        <v>1992</v>
+        <v>2566</v>
       </c>
       <c r="M59" s="0" t="s">
-        <v>2012</v>
+        <v>2586</v>
       </c>
       <c r="N59" s="0" t="s">
-        <v>2029</v>
+        <v>2603</v>
       </c>
       <c r="O59" s="0" t="s">
-        <v>2049</v>
+        <v>2623</v>
       </c>
       <c r="P59" s="0" t="s">
-        <v>2070</v>
+        <v>2644</v>
       </c>
       <c r="Q59" s="0" t="s">
-        <v>2102</v>
+        <v>2676</v>
       </c>
       <c r="R59" s="0" t="s">
-        <v>2127</v>
+        <v>2701</v>
       </c>
       <c r="S59" s="0" t="s">
-        <v>2154</v>
+        <v>2728</v>
       </c>
       <c r="T59" s="0" t="s">
-        <v>2173</v>
+        <v>2747</v>
       </c>
       <c r="U59" s="0" t="s">
-        <v>2197</v>
+        <v>2771</v>
       </c>
       <c r="V59" s="0"/>
       <c r="W59" s="0"/>
       <c r="X59" s="0" t="s">
-        <v>2243</v>
+        <v>2817</v>
       </c>
       <c r="Y59" s="0" t="s">
-        <v>2291</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="60">
@@ -11294,72 +13018,72 @@
         <v>59</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>1782</v>
+        <v>2356</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>1854</v>
+        <v>2428</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>1867</v>
+        <v>2441</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>1877</v>
+        <v>2451</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>1890</v>
+        <v>2464</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>1908</v>
+        <v>2482</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>1927</v>
+        <v>2501</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>1947</v>
+        <v>2521</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>1964</v>
+        <v>2538</v>
       </c>
       <c r="K60" s="0" t="s">
-        <v>1977</v>
+        <v>2551</v>
       </c>
       <c r="L60" s="0" t="s">
-        <v>1992</v>
+        <v>2566</v>
       </c>
       <c r="M60" s="0" t="s">
-        <v>2012</v>
+        <v>2586</v>
       </c>
       <c r="N60" s="0" t="s">
-        <v>2029</v>
+        <v>2603</v>
       </c>
       <c r="O60" s="0" t="s">
-        <v>2049</v>
+        <v>2623</v>
       </c>
       <c r="P60" s="0" t="s">
-        <v>2070</v>
+        <v>2644</v>
       </c>
       <c r="Q60" s="0" t="s">
-        <v>2102</v>
+        <v>2676</v>
       </c>
       <c r="R60" s="0" t="s">
-        <v>2127</v>
+        <v>2701</v>
       </c>
       <c r="S60" s="0" t="s">
-        <v>2154</v>
+        <v>2728</v>
       </c>
       <c r="T60" s="0" t="s">
-        <v>2173</v>
+        <v>2747</v>
       </c>
       <c r="U60" s="0" t="s">
-        <v>2197</v>
+        <v>2771</v>
       </c>
       <c r="V60" s="0"/>
       <c r="W60" s="0"/>
       <c r="X60" s="0" t="s">
-        <v>2243</v>
+        <v>2817</v>
       </c>
       <c r="Y60" s="0" t="s">
-        <v>2291</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="61">
@@ -11367,72 +13091,72 @@
         <v>60</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>1783</v>
+        <v>2357</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>1855</v>
+        <v>2429</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>1867</v>
+        <v>2441</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>1877</v>
+        <v>2451</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>1890</v>
+        <v>2464</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>1908</v>
+        <v>2482</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>1927</v>
+        <v>2501</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>1947</v>
+        <v>2521</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>1964</v>
+        <v>2538</v>
       </c>
       <c r="K61" s="0" t="s">
-        <v>1977</v>
+        <v>2551</v>
       </c>
       <c r="L61" s="0" t="s">
-        <v>1992</v>
+        <v>2566</v>
       </c>
       <c r="M61" s="0" t="s">
-        <v>2012</v>
+        <v>2586</v>
       </c>
       <c r="N61" s="0" t="s">
-        <v>2029</v>
+        <v>2603</v>
       </c>
       <c r="O61" s="0" t="s">
-        <v>2049</v>
+        <v>2623</v>
       </c>
       <c r="P61" s="0" t="s">
-        <v>2070</v>
+        <v>2644</v>
       </c>
       <c r="Q61" s="0" t="s">
-        <v>2102</v>
+        <v>2676</v>
       </c>
       <c r="R61" s="0" t="s">
-        <v>2127</v>
+        <v>2701</v>
       </c>
       <c r="S61" s="0" t="s">
-        <v>2154</v>
+        <v>2728</v>
       </c>
       <c r="T61" s="0" t="s">
-        <v>2173</v>
+        <v>2747</v>
       </c>
       <c r="U61" s="0" t="s">
-        <v>2197</v>
+        <v>2771</v>
       </c>
       <c r="V61" s="0"/>
       <c r="W61" s="0"/>
       <c r="X61" s="0" t="s">
-        <v>2243</v>
+        <v>2817</v>
       </c>
       <c r="Y61" s="0" t="s">
-        <v>2291</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="62">
@@ -11440,72 +13164,72 @@
         <v>61</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>1784</v>
+        <v>2358</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>1856</v>
+        <v>2430</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>1867</v>
+        <v>2441</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>1877</v>
+        <v>2451</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>1890</v>
+        <v>2464</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>1908</v>
+        <v>2482</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>1927</v>
+        <v>2501</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>1947</v>
+        <v>2521</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>1964</v>
+        <v>2538</v>
       </c>
       <c r="K62" s="0" t="s">
-        <v>1977</v>
+        <v>2551</v>
       </c>
       <c r="L62" s="0" t="s">
-        <v>1992</v>
+        <v>2566</v>
       </c>
       <c r="M62" s="0" t="s">
-        <v>2012</v>
+        <v>2586</v>
       </c>
       <c r="N62" s="0" t="s">
-        <v>2029</v>
+        <v>2603</v>
       </c>
       <c r="O62" s="0" t="s">
-        <v>2049</v>
+        <v>2623</v>
       </c>
       <c r="P62" s="0" t="s">
-        <v>2070</v>
+        <v>2644</v>
       </c>
       <c r="Q62" s="0" t="s">
-        <v>2102</v>
+        <v>2676</v>
       </c>
       <c r="R62" s="0" t="s">
-        <v>2127</v>
+        <v>2701</v>
       </c>
       <c r="S62" s="0" t="s">
-        <v>2154</v>
+        <v>2728</v>
       </c>
       <c r="T62" s="0" t="s">
-        <v>2173</v>
+        <v>2747</v>
       </c>
       <c r="U62" s="0" t="s">
-        <v>2197</v>
+        <v>2771</v>
       </c>
       <c r="V62" s="0"/>
       <c r="W62" s="0"/>
       <c r="X62" s="0" t="s">
-        <v>2243</v>
+        <v>2817</v>
       </c>
       <c r="Y62" s="0" t="s">
-        <v>2291</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="63">
@@ -11513,72 +13237,72 @@
         <v>62</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>1785</v>
+        <v>2359</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>1857</v>
+        <v>2431</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>1867</v>
+        <v>2441</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>1877</v>
+        <v>2451</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>1890</v>
+        <v>2464</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>1908</v>
+        <v>2482</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>1927</v>
+        <v>2501</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>1947</v>
+        <v>2521</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>1965</v>
+        <v>2539</v>
       </c>
       <c r="K63" s="0" t="s">
-        <v>1977</v>
+        <v>2551</v>
       </c>
       <c r="L63" s="0" t="s">
-        <v>1992</v>
+        <v>2566</v>
       </c>
       <c r="M63" s="0" t="s">
-        <v>2012</v>
+        <v>2586</v>
       </c>
       <c r="N63" s="0" t="s">
-        <v>2029</v>
+        <v>2603</v>
       </c>
       <c r="O63" s="0" t="s">
-        <v>2049</v>
+        <v>2623</v>
       </c>
       <c r="P63" s="0" t="s">
-        <v>2070</v>
+        <v>2644</v>
       </c>
       <c r="Q63" s="0" t="s">
-        <v>2103</v>
+        <v>2677</v>
       </c>
       <c r="R63" s="0" t="s">
-        <v>2127</v>
+        <v>2701</v>
       </c>
       <c r="S63" s="0" t="s">
-        <v>2154</v>
+        <v>2728</v>
       </c>
       <c r="T63" s="0" t="s">
-        <v>2173</v>
+        <v>2747</v>
       </c>
       <c r="U63" s="0" t="s">
-        <v>2197</v>
+        <v>2771</v>
       </c>
       <c r="V63" s="0"/>
       <c r="W63" s="0"/>
       <c r="X63" s="0" t="s">
-        <v>2244</v>
+        <v>2818</v>
       </c>
       <c r="Y63" s="0" t="s">
-        <v>2292</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="64">
@@ -11586,72 +13310,72 @@
         <v>63</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>1786</v>
+        <v>2360</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>1858</v>
+        <v>2432</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>1867</v>
+        <v>2441</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>1877</v>
+        <v>2451</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>1890</v>
+        <v>2464</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>1908</v>
+        <v>2482</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>1927</v>
+        <v>2501</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>1947</v>
+        <v>2521</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>1966</v>
+        <v>2540</v>
       </c>
       <c r="K64" s="0" t="s">
-        <v>1977</v>
+        <v>2551</v>
       </c>
       <c r="L64" s="0" t="s">
-        <v>1992</v>
+        <v>2566</v>
       </c>
       <c r="M64" s="0" t="s">
-        <v>2012</v>
+        <v>2586</v>
       </c>
       <c r="N64" s="0" t="s">
-        <v>2029</v>
+        <v>2603</v>
       </c>
       <c r="O64" s="0" t="s">
-        <v>2049</v>
+        <v>2623</v>
       </c>
       <c r="P64" s="0" t="s">
-        <v>2070</v>
+        <v>2644</v>
       </c>
       <c r="Q64" s="0" t="s">
-        <v>2104</v>
+        <v>2678</v>
       </c>
       <c r="R64" s="0" t="s">
-        <v>2127</v>
+        <v>2701</v>
       </c>
       <c r="S64" s="0" t="s">
-        <v>2154</v>
+        <v>2728</v>
       </c>
       <c r="T64" s="0" t="s">
-        <v>2173</v>
+        <v>2747</v>
       </c>
       <c r="U64" s="0" t="s">
-        <v>2197</v>
+        <v>2771</v>
       </c>
       <c r="V64" s="0"/>
       <c r="W64" s="0"/>
       <c r="X64" s="0" t="s">
-        <v>2245</v>
+        <v>2819</v>
       </c>
       <c r="Y64" s="0" t="s">
-        <v>2293</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="65">
@@ -11659,72 +13383,72 @@
         <v>64</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>1787</v>
+        <v>2361</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>1859</v>
+        <v>2433</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>1867</v>
+        <v>2441</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>1878</v>
+        <v>2452</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>1890</v>
+        <v>2464</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>1908</v>
+        <v>2482</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>1927</v>
+        <v>2501</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>1947</v>
+        <v>2521</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>1966</v>
+        <v>2540</v>
       </c>
       <c r="K65" s="0" t="s">
-        <v>1977</v>
+        <v>2551</v>
       </c>
       <c r="L65" s="0" t="s">
-        <v>1992</v>
+        <v>2566</v>
       </c>
       <c r="M65" s="0" t="s">
-        <v>2012</v>
+        <v>2586</v>
       </c>
       <c r="N65" s="0" t="s">
-        <v>2029</v>
+        <v>2603</v>
       </c>
       <c r="O65" s="0" t="s">
-        <v>2049</v>
+        <v>2623</v>
       </c>
       <c r="P65" s="0" t="s">
-        <v>2070</v>
+        <v>2644</v>
       </c>
       <c r="Q65" s="0" t="s">
-        <v>2104</v>
+        <v>2678</v>
       </c>
       <c r="R65" s="0" t="s">
-        <v>2127</v>
+        <v>2701</v>
       </c>
       <c r="S65" s="0" t="s">
-        <v>2154</v>
+        <v>2728</v>
       </c>
       <c r="T65" s="0" t="s">
-        <v>2173</v>
+        <v>2747</v>
       </c>
       <c r="U65" s="0" t="s">
-        <v>2197</v>
+        <v>2771</v>
       </c>
       <c r="V65" s="0"/>
       <c r="W65" s="0"/>
       <c r="X65" s="0" t="s">
-        <v>2245</v>
+        <v>2819</v>
       </c>
       <c r="Y65" s="0" t="s">
-        <v>2293</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="66">
@@ -11732,72 +13456,72 @@
         <v>65</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>1788</v>
+        <v>2362</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>1860</v>
+        <v>2434</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>1867</v>
+        <v>2441</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>1879</v>
+        <v>2453</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>1890</v>
+        <v>2464</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>1908</v>
+        <v>2482</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>1927</v>
+        <v>2501</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>1947</v>
+        <v>2521</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>1966</v>
+        <v>2540</v>
       </c>
       <c r="K66" s="0" t="s">
-        <v>1977</v>
+        <v>2551</v>
       </c>
       <c r="L66" s="0" t="s">
-        <v>1992</v>
+        <v>2566</v>
       </c>
       <c r="M66" s="0" t="s">
-        <v>2012</v>
+        <v>2586</v>
       </c>
       <c r="N66" s="0" t="s">
-        <v>2029</v>
+        <v>2603</v>
       </c>
       <c r="O66" s="0" t="s">
-        <v>2049</v>
+        <v>2623</v>
       </c>
       <c r="P66" s="0" t="s">
-        <v>2070</v>
+        <v>2644</v>
       </c>
       <c r="Q66" s="0" t="s">
-        <v>2104</v>
+        <v>2678</v>
       </c>
       <c r="R66" s="0" t="s">
-        <v>2127</v>
+        <v>2701</v>
       </c>
       <c r="S66" s="0" t="s">
-        <v>2154</v>
+        <v>2728</v>
       </c>
       <c r="T66" s="0" t="s">
-        <v>2173</v>
+        <v>2747</v>
       </c>
       <c r="U66" s="0" t="s">
-        <v>2197</v>
+        <v>2771</v>
       </c>
       <c r="V66" s="0"/>
       <c r="W66" s="0"/>
       <c r="X66" s="0" t="s">
-        <v>2245</v>
+        <v>2819</v>
       </c>
       <c r="Y66" s="0" t="s">
-        <v>2293</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="67">
@@ -11805,72 +13529,72 @@
         <v>66</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>1789</v>
+        <v>2363</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>1861</v>
+        <v>2435</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>1867</v>
+        <v>2441</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>1879</v>
+        <v>2453</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>1890</v>
+        <v>2464</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>1908</v>
+        <v>2482</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>1927</v>
+        <v>2501</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>1947</v>
+        <v>2521</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>1966</v>
+        <v>2540</v>
       </c>
       <c r="K67" s="0" t="s">
-        <v>1977</v>
+        <v>2551</v>
       </c>
       <c r="L67" s="0" t="s">
-        <v>1992</v>
+        <v>2566</v>
       </c>
       <c r="M67" s="0" t="s">
-        <v>2012</v>
+        <v>2586</v>
       </c>
       <c r="N67" s="0" t="s">
-        <v>2029</v>
+        <v>2603</v>
       </c>
       <c r="O67" s="0" t="s">
-        <v>2049</v>
+        <v>2623</v>
       </c>
       <c r="P67" s="0" t="s">
-        <v>2070</v>
+        <v>2644</v>
       </c>
       <c r="Q67" s="0" t="s">
-        <v>2104</v>
+        <v>2678</v>
       </c>
       <c r="R67" s="0" t="s">
-        <v>2127</v>
+        <v>2701</v>
       </c>
       <c r="S67" s="0" t="s">
-        <v>2154</v>
+        <v>2728</v>
       </c>
       <c r="T67" s="0" t="s">
-        <v>2173</v>
+        <v>2747</v>
       </c>
       <c r="U67" s="0" t="s">
-        <v>2197</v>
+        <v>2771</v>
       </c>
       <c r="V67" s="0"/>
       <c r="W67" s="0"/>
       <c r="X67" s="0" t="s">
-        <v>2245</v>
+        <v>2819</v>
       </c>
       <c r="Y67" s="0" t="s">
-        <v>2293</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="68">
@@ -11878,72 +13602,72 @@
         <v>67</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>1790</v>
+        <v>2364</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>1862</v>
+        <v>2436</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>1867</v>
+        <v>2441</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>1879</v>
+        <v>2453</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>1890</v>
+        <v>2464</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>1908</v>
+        <v>2482</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>1927</v>
+        <v>2501</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>1947</v>
+        <v>2521</v>
       </c>
       <c r="J68" s="0" t="s">
-        <v>1966</v>
+        <v>2540</v>
       </c>
       <c r="K68" s="0" t="s">
-        <v>1977</v>
+        <v>2551</v>
       </c>
       <c r="L68" s="0" t="s">
-        <v>1992</v>
+        <v>2566</v>
       </c>
       <c r="M68" s="0" t="s">
-        <v>2012</v>
+        <v>2586</v>
       </c>
       <c r="N68" s="0" t="s">
-        <v>2029</v>
+        <v>2603</v>
       </c>
       <c r="O68" s="0" t="s">
-        <v>2049</v>
+        <v>2623</v>
       </c>
       <c r="P68" s="0" t="s">
-        <v>2070</v>
+        <v>2644</v>
       </c>
       <c r="Q68" s="0" t="s">
-        <v>2104</v>
+        <v>2678</v>
       </c>
       <c r="R68" s="0" t="s">
-        <v>2127</v>
+        <v>2701</v>
       </c>
       <c r="S68" s="0" t="s">
-        <v>2154</v>
+        <v>2728</v>
       </c>
       <c r="T68" s="0" t="s">
-        <v>2173</v>
+        <v>2747</v>
       </c>
       <c r="U68" s="0" t="s">
-        <v>2197</v>
+        <v>2771</v>
       </c>
       <c r="V68" s="0"/>
       <c r="W68" s="0"/>
       <c r="X68" s="0" t="s">
-        <v>2245</v>
+        <v>2819</v>
       </c>
       <c r="Y68" s="0" t="s">
-        <v>2293</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="69">
@@ -11951,72 +13675,72 @@
         <v>68</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>1791</v>
+        <v>2365</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>1863</v>
+        <v>2437</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>1867</v>
+        <v>2441</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>1879</v>
+        <v>2453</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>1890</v>
+        <v>2464</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>1908</v>
+        <v>2482</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>1927</v>
+        <v>2501</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>1947</v>
+        <v>2521</v>
       </c>
       <c r="J69" s="0" t="s">
-        <v>1966</v>
+        <v>2540</v>
       </c>
       <c r="K69" s="0" t="s">
-        <v>1977</v>
+        <v>2551</v>
       </c>
       <c r="L69" s="0" t="s">
-        <v>1992</v>
+        <v>2566</v>
       </c>
       <c r="M69" s="0" t="s">
-        <v>2012</v>
+        <v>2586</v>
       </c>
       <c r="N69" s="0" t="s">
-        <v>2029</v>
+        <v>2603</v>
       </c>
       <c r="O69" s="0" t="s">
-        <v>2049</v>
+        <v>2623</v>
       </c>
       <c r="P69" s="0" t="s">
-        <v>2070</v>
+        <v>2644</v>
       </c>
       <c r="Q69" s="0" t="s">
-        <v>2104</v>
+        <v>2678</v>
       </c>
       <c r="R69" s="0" t="s">
-        <v>2127</v>
+        <v>2701</v>
       </c>
       <c r="S69" s="0" t="s">
-        <v>2154</v>
+        <v>2728</v>
       </c>
       <c r="T69" s="0" t="s">
-        <v>2173</v>
+        <v>2747</v>
       </c>
       <c r="U69" s="0" t="s">
-        <v>2197</v>
+        <v>2771</v>
       </c>
       <c r="V69" s="0"/>
       <c r="W69" s="0"/>
       <c r="X69" s="0" t="s">
-        <v>2245</v>
+        <v>2819</v>
       </c>
       <c r="Y69" s="0" t="s">
-        <v>2293</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="70">
@@ -12024,72 +13748,72 @@
         <v>69</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>1792</v>
+        <v>2366</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>1864</v>
+        <v>2438</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>1867</v>
+        <v>2441</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>1879</v>
+        <v>2453</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>1890</v>
+        <v>2464</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>1908</v>
+        <v>2482</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>1927</v>
+        <v>2501</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>1947</v>
+        <v>2521</v>
       </c>
       <c r="J70" s="0" t="s">
-        <v>1966</v>
+        <v>2540</v>
       </c>
       <c r="K70" s="0" t="s">
-        <v>1977</v>
+        <v>2551</v>
       </c>
       <c r="L70" s="0" t="s">
-        <v>1992</v>
+        <v>2566</v>
       </c>
       <c r="M70" s="0" t="s">
-        <v>2012</v>
+        <v>2586</v>
       </c>
       <c r="N70" s="0" t="s">
-        <v>2029</v>
+        <v>2603</v>
       </c>
       <c r="O70" s="0" t="s">
-        <v>2050</v>
+        <v>2624</v>
       </c>
       <c r="P70" s="0" t="s">
-        <v>2070</v>
+        <v>2644</v>
       </c>
       <c r="Q70" s="0" t="s">
-        <v>2104</v>
+        <v>2678</v>
       </c>
       <c r="R70" s="0" t="s">
-        <v>2127</v>
+        <v>2701</v>
       </c>
       <c r="S70" s="0" t="s">
-        <v>2154</v>
+        <v>2728</v>
       </c>
       <c r="T70" s="0" t="s">
-        <v>2173</v>
+        <v>2747</v>
       </c>
       <c r="U70" s="0" t="s">
-        <v>2197</v>
+        <v>2771</v>
       </c>
       <c r="V70" s="0"/>
       <c r="W70" s="0"/>
       <c r="X70" s="0" t="s">
-        <v>2246</v>
+        <v>2820</v>
       </c>
       <c r="Y70" s="0" t="s">
-        <v>2294</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="71">
@@ -12097,72 +13821,72 @@
         <v>70</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>1793</v>
+        <v>2367</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>1865</v>
+        <v>2439</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>1867</v>
+        <v>2441</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>1879</v>
+        <v>2453</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>1890</v>
+        <v>2464</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>1908</v>
+        <v>2482</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>1927</v>
+        <v>2501</v>
       </c>
       <c r="I71" s="0" t="s">
-        <v>1947</v>
+        <v>2521</v>
       </c>
       <c r="J71" s="0" t="s">
-        <v>1966</v>
+        <v>2540</v>
       </c>
       <c r="K71" s="0" t="s">
-        <v>1977</v>
+        <v>2551</v>
       </c>
       <c r="L71" s="0" t="s">
-        <v>1992</v>
+        <v>2566</v>
       </c>
       <c r="M71" s="0" t="s">
-        <v>2012</v>
+        <v>2586</v>
       </c>
       <c r="N71" s="0" t="s">
-        <v>2029</v>
+        <v>2603</v>
       </c>
       <c r="O71" s="0" t="s">
-        <v>2051</v>
+        <v>2625</v>
       </c>
       <c r="P71" s="0" t="s">
-        <v>2070</v>
+        <v>2644</v>
       </c>
       <c r="Q71" s="0" t="s">
-        <v>2104</v>
+        <v>2678</v>
       </c>
       <c r="R71" s="0" t="s">
-        <v>2127</v>
+        <v>2701</v>
       </c>
       <c r="S71" s="0" t="s">
-        <v>2154</v>
+        <v>2728</v>
       </c>
       <c r="T71" s="0" t="s">
-        <v>2173</v>
+        <v>2747</v>
       </c>
       <c r="U71" s="0" t="s">
-        <v>2197</v>
+        <v>2771</v>
       </c>
       <c r="V71" s="0"/>
       <c r="W71" s="0"/>
       <c r="X71" s="0" t="s">
-        <v>2247</v>
+        <v>2821</v>
       </c>
       <c r="Y71" s="0" t="s">
-        <v>2295</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="72">
@@ -12195,7 +13919,7 @@
     <row r="73">
       <c r="A73" s="0"/>
       <c r="B73" s="0" t="s">
-        <v>1794</v>
+        <v>2368</v>
       </c>
       <c r="C73" s="0"/>
       <c r="D73" s="0"/>
